--- a/USASwimming/Times For Thomas Martin.xlsx
+++ b/USASwimming/Times For Thomas Martin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="89">
   <si>
     <t>Event</t>
   </si>
@@ -60,15 +60,27 @@
     <t>"B"</t>
   </si>
   <si>
+    <t>2019 CT RYWC Candlewood Cup</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>11/9/2019</t>
+  </si>
+  <si>
+    <t>2019 CT Cheshire Y Sea Dog IMX</t>
+  </si>
+  <si>
+    <t>10/19/2019</t>
+  </si>
+  <si>
     <t>2019 CT WYW Winter Qualifier R</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>1/18/2019</t>
   </si>
   <si>
@@ -118,6 +130,9 @@
   </si>
   <si>
     <t>100 FR</t>
+  </si>
+  <si>
+    <t>11/10/2019</t>
   </si>
   <si>
     <t>3/3/2019</t>
@@ -634,7 +649,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:J111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -693,16 +708,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>33.500438425925928</v>
+        <v>33.500407175925929</v>
       </c>
       <c r="C2" s="2">
-        <v>36557.500438425923</v>
+        <v>36557.500407175925</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>311</v>
+        <v>447</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -725,16 +740,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>33.500439351851853</v>
+        <v>33.500422453703706</v>
       </c>
       <c r="C3" s="2">
-        <v>36557.500439351854</v>
+        <v>36557.500422453704</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
@@ -757,31 +772,31 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>33.500445023148146</v>
+        <v>33.500438425925928</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.50044502315</v>
+        <v>36557.500438425923</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -789,31 +804,31 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500491550925929</v>
+        <v>33.500439351851853</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500491550927</v>
+        <v>36557.500439351854</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E5">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,19 +836,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>33.500500925925927</v>
+        <v>33.500445023148146</v>
       </c>
       <c r="C6" s="2">
-        <v>36557.500500925926</v>
+        <v>36557.50044502315</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -853,19 +868,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>33.500505324074076</v>
+        <v>33.500491550925929</v>
       </c>
       <c r="C7" s="2">
-        <v>36557.500505324075</v>
+        <v>36557.500491550927</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -885,19 +900,19 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.500535416666665</v>
+        <v>33.500500925925927</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.500535416664</v>
+        <v>36557.500500925926</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
         <v>27</v>
@@ -917,19 +932,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500548379629628</v>
+        <v>33.500505324074076</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500548379627</v>
+        <v>36557.500505324075</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>29</v>
@@ -946,25 +961,25 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2">
+        <v>33.500535416666665</v>
+      </c>
+      <c r="C10" s="2">
+        <v>36557.500535416664</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
         <v>31</v>
-      </c>
-      <c r="B10" s="3">
-        <v>33.500964236111109</v>
-      </c>
-      <c r="C10" s="3">
-        <v>33.500964236111109</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-      <c r="E10">
-        <v>273</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -978,22 +993,22 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="3">
-        <v>33.500995486111108</v>
-      </c>
-      <c r="C11" s="3">
-        <v>33.500995486111108</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>33.500548379629628</v>
+      </c>
+      <c r="C11" s="2">
+        <v>36557.500548379627</v>
       </c>
       <c r="D11">
         <v>8</v>
       </c>
       <c r="E11">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>33</v>
@@ -1010,25 +1025,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3">
-        <v>33.501104166666664</v>
+        <v>33.500913425925923</v>
       </c>
       <c r="C12" s="3">
-        <v>33.501104166666664</v>
+        <v>33.500913425925923</v>
       </c>
       <c r="D12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E12">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1037,30 +1052,30 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B13" s="3">
-        <v>33.501104976851849</v>
+        <v>33.500964236111109</v>
       </c>
       <c r="C13" s="3">
-        <v>33.501104976851849</v>
+        <v>33.500964236111109</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1069,30 +1084,30 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B14" s="3">
-        <v>33.501150115740742</v>
+        <v>33.500995486111108</v>
       </c>
       <c r="C14" s="3">
-        <v>33.501150115740742</v>
+        <v>33.500995486111108</v>
       </c>
       <c r="D14">
         <v>8</v>
       </c>
       <c r="E14">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1101,30 +1116,30 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15" s="3">
-        <v>33.501234027777777</v>
+        <v>33.501104166666664</v>
       </c>
       <c r="C15" s="3">
-        <v>33.501234027777777</v>
+        <v>33.501104166666664</v>
       </c>
       <c r="D15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1133,62 +1148,62 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="2">
-        <v>33.500474189814817</v>
-      </c>
-      <c r="C16" s="2">
-        <v>36557.500474189816</v>
+        <v>35</v>
+      </c>
+      <c r="B16" s="3">
+        <v>33.501104976851849</v>
+      </c>
+      <c r="C16" s="3">
+        <v>33.501104976851849</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>425</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
         <v>41</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-      <c r="I16" t="s">
-        <v>14</v>
-      </c>
-      <c r="J16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2">
-        <v>33.500487962962964</v>
-      </c>
-      <c r="C17" s="2">
-        <v>36557.500487962963</v>
+        <v>35</v>
+      </c>
+      <c r="B17" s="3">
+        <v>33.501150115740742</v>
+      </c>
+      <c r="C17" s="3">
+        <v>33.501150115740742</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E17">
-        <v>369</v>
+        <v>15</v>
       </c>
       <c r="F17" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1197,30 +1212,30 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="2">
-        <v>33.500495486111113</v>
-      </c>
-      <c r="C18" s="2">
-        <v>36557.500495486114</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="3">
+        <v>33.501234027777777</v>
+      </c>
+      <c r="C18" s="3">
+        <v>33.501234027777777</v>
       </c>
       <c r="D18">
         <v>8</v>
       </c>
       <c r="E18">
-        <v>340</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1229,27 +1244,27 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>33.500460879629628</v>
       </c>
       <c r="C19" s="2">
-        <v>36557.500502083334</v>
+        <v>36557.50046087963</v>
       </c>
       <c r="D19">
         <v>9</v>
       </c>
       <c r="E19">
-        <v>315</v>
+        <v>480</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G19" t="s">
         <v>16</v>
@@ -1261,30 +1276,30 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B20" s="2">
-        <v>33.50053599537037</v>
+        <v>33.500474189814817</v>
       </c>
       <c r="C20" s="2">
-        <v>36557.500535995372</v>
+        <v>36557.500474189816</v>
       </c>
       <c r="D20">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E20">
-        <v>198</v>
+        <v>425</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1293,30 +1308,30 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2">
-        <v>33.500553935185188</v>
+        <v>33.500475925925926</v>
       </c>
       <c r="C21" s="2">
-        <v>36557.500553935184</v>
+        <v>36557.500475925925</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21">
-        <v>143</v>
+        <v>417</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1325,30 +1340,30 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B22" s="2">
-        <v>33.500568287037034</v>
+        <v>33.500487962962964</v>
       </c>
       <c r="C22" s="2">
-        <v>36557.50056828704</v>
+        <v>36557.500487962963</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E22">
-        <v>104</v>
+        <v>369</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1357,31 +1372,31 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2">
-        <v>33.500572685185183</v>
+        <v>33.500495486111113</v>
       </c>
       <c r="C23" s="2">
-        <v>36557.500572685189</v>
+        <v>36557.500495486114</v>
       </c>
       <c r="D23">
         <v>8</v>
       </c>
       <c r="E23">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
         <v>18</v>
       </c>
-      <c r="G23" t="s">
-        <v>29</v>
-      </c>
       <c r="H23" t="s">
         <v>13</v>
       </c>
@@ -1389,30 +1404,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="2">
-        <v>33.500585995370372</v>
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="2">
-        <v>36557.500585995367</v>
+        <v>36557.500502083334</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E24">
-        <v>61</v>
+        <v>315</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1421,30 +1436,30 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="3">
-        <v>33.50107372685185</v>
-      </c>
-      <c r="C25" s="3">
-        <v>33.50107372685185</v>
+        <v>45</v>
+      </c>
+      <c r="B25" s="2">
+        <v>33.50053599537037</v>
+      </c>
+      <c r="C25" s="2">
+        <v>36557.500535995372</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1453,30 +1468,30 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3">
-        <v>33.501076967592596</v>
-      </c>
-      <c r="C26" s="3">
-        <v>33.501076967592596</v>
+        <v>45</v>
+      </c>
+      <c r="B26" s="2">
+        <v>33.500553935185188</v>
+      </c>
+      <c r="C26" s="2">
+        <v>36557.500553935184</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1485,7 +1500,7 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -1493,22 +1508,22 @@
         <v>45</v>
       </c>
       <c r="B27" s="2">
-        <v>33.500610879629633</v>
+        <v>33.500568287037034</v>
       </c>
       <c r="C27" s="2">
-        <v>36557.50061087963</v>
+        <v>36557.50056828704</v>
       </c>
       <c r="D27">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G27" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1517,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1525,22 +1540,22 @@
         <v>45</v>
       </c>
       <c r="B28" s="2">
-        <v>33.500615856481481</v>
+        <v>33.500572685185183</v>
       </c>
       <c r="C28" s="2">
-        <v>36557.500615856479</v>
+        <v>36557.500572685189</v>
       </c>
       <c r="D28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1549,7 +1564,7 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1557,22 +1572,22 @@
         <v>45</v>
       </c>
       <c r="B29" s="2">
-        <v>33.500625925925924</v>
+        <v>33.500585995370372</v>
       </c>
       <c r="C29" s="2">
-        <v>36557.500625925924</v>
+        <v>36557.500585995367</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E29">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1581,30 +1596,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="2">
-        <v>33.500669907407406</v>
-      </c>
-      <c r="C30" s="2">
-        <v>36557.500669907407</v>
+        <v>49</v>
+      </c>
+      <c r="B30" s="3">
+        <v>33.50107372685185</v>
+      </c>
+      <c r="C30" s="3">
+        <v>33.50107372685185</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E30">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1613,27 +1628,27 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2">
-        <v>33.500688078703703</v>
-      </c>
-      <c r="C31" s="2">
-        <v>36557.500688078704</v>
+        <v>49</v>
+      </c>
+      <c r="B31" s="3">
+        <v>33.501076967592596</v>
+      </c>
+      <c r="C31" s="3">
+        <v>33.501076967592596</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E31">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
         <v>23</v>
@@ -1650,25 +1665,25 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="3">
-        <v>33.500706944444445</v>
-      </c>
-      <c r="C32" s="3">
-        <v>33.500706944444445</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="2">
+        <v>33.500588888888892</v>
+      </c>
+      <c r="C32" s="2">
+        <v>36557.500588888892</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1677,30 +1692,30 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="3">
-        <v>33.500760532407405</v>
-      </c>
-      <c r="C33" s="3">
-        <v>33.500760532407405</v>
+        <v>50</v>
+      </c>
+      <c r="B33" s="2">
+        <v>33.500594097222219</v>
+      </c>
+      <c r="C33" s="2">
+        <v>36557.500594097219</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>225</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1709,30 +1724,30 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="3">
-        <v>33.501292129629633</v>
-      </c>
-      <c r="C34" s="3">
-        <v>33.501292129629633</v>
+        <v>50</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33.500610879629633</v>
+      </c>
+      <c r="C34" s="2">
+        <v>36557.50061087963</v>
       </c>
       <c r="D34">
         <v>9</v>
       </c>
       <c r="E34">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G34" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1741,30 +1756,30 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="3">
-        <v>33.501327199074076</v>
-      </c>
-      <c r="C35" s="3">
-        <v>33.501327199074076</v>
+        <v>50</v>
+      </c>
+      <c r="B35" s="2">
+        <v>33.500615856481481</v>
+      </c>
+      <c r="C35" s="2">
+        <v>36557.500615856479</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E35">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G35" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1773,30 +1788,30 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="3">
-        <v>33.501343981481483</v>
-      </c>
-      <c r="C36" s="3">
-        <v>33.501343981481483</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="2">
+        <v>33.500625925925924</v>
+      </c>
+      <c r="C36" s="2">
+        <v>36557.500625925924</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E36">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1805,30 +1820,30 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="3">
-        <v>33.501373263888887</v>
-      </c>
-      <c r="C37" s="3">
-        <v>33.501373263888887</v>
+        <v>50</v>
+      </c>
+      <c r="B37" s="2">
+        <v>33.500669907407406</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36557.500669907407</v>
       </c>
       <c r="D37">
         <v>8</v>
       </c>
       <c r="E37">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1837,27 +1852,27 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="3">
-        <v>33.500739004629629</v>
-      </c>
-      <c r="C38" s="3">
-        <v>33.500739004629629</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="2">
+        <v>33.500688078703703</v>
+      </c>
+      <c r="C38" s="2">
+        <v>36557.500688078704</v>
       </c>
       <c r="D38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G38" t="s">
         <v>27</v>
@@ -1869,18 +1884,18 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B39" s="3">
-        <v>33.500833796296298</v>
+        <v>33.500706944444445</v>
       </c>
       <c r="C39" s="3">
-        <v>33.500833796296298</v>
+        <v>33.500706944444445</v>
       </c>
       <c r="D39">
         <v>8</v>
@@ -1889,10 +1904,10 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -1901,30 +1916,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" s="3">
-        <v>33.501135069444445</v>
+        <v>33.500760532407405</v>
       </c>
       <c r="C40" s="3">
-        <v>33.501135069444445</v>
+        <v>33.500760532407405</v>
       </c>
       <c r="D40">
         <v>8</v>
       </c>
       <c r="E40">
-        <v>205</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G40" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -1933,30 +1948,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B41" s="3">
-        <v>33.501179513888886</v>
+        <v>33.501292129629633</v>
       </c>
       <c r="C41" s="3">
-        <v>33.501179513888886</v>
+        <v>33.501292129629633</v>
       </c>
       <c r="D41">
         <v>9</v>
       </c>
       <c r="E41">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -1965,31 +1980,31 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B42" s="3">
-        <v>33.50127199074074</v>
+        <v>33.501327199074076</v>
       </c>
       <c r="C42" s="3">
-        <v>33.50127199074074</v>
+        <v>33.501327199074076</v>
       </c>
       <c r="D42">
         <v>8</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="F42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" t="s">
         <v>18</v>
       </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
       <c r="H42" t="s">
         <v>13</v>
       </c>
@@ -1997,31 +2012,31 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B43" s="3">
-        <v>33.501300578703706</v>
+        <v>33.501343981481483</v>
       </c>
       <c r="C43" s="3">
-        <v>33.501300578703706</v>
+        <v>33.501343981481483</v>
       </c>
       <c r="D43">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43">
+        <v>179</v>
+      </c>
+      <c r="F43" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s">
         <v>23</v>
       </c>
-      <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>21</v>
-      </c>
       <c r="H43" t="s">
         <v>13</v>
       </c>
@@ -2029,30 +2044,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3">
-        <v>33.50133113425926</v>
+        <v>33.501373263888887</v>
       </c>
       <c r="C44" s="3">
-        <v>33.50133113425926</v>
+        <v>33.501373263888887</v>
       </c>
       <c r="D44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G44" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2061,30 +2076,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="3">
-        <v>33.502477777777777</v>
-      </c>
-      <c r="C45" s="3">
-        <v>33.502477777777777</v>
+        <v>52</v>
+      </c>
+      <c r="B45" s="2">
+        <v>33.500487962962964</v>
+      </c>
+      <c r="C45" s="2">
+        <v>36557.500487962963</v>
       </c>
       <c r="D45">
         <v>9</v>
       </c>
       <c r="E45">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="F45" t="s">
         <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2093,30 +2108,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="B46" s="2">
-        <v>33.500476504629631</v>
+        <v>33.500504629629631</v>
       </c>
       <c r="C46" s="2">
-        <v>36557.500476504632</v>
+        <v>36557.500504629628</v>
       </c>
       <c r="D46">
         <v>9</v>
       </c>
       <c r="E46">
-        <v>404</v>
+        <v>236</v>
       </c>
       <c r="F46" t="s">
         <v>11</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2125,30 +2140,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>10</v>
-      </c>
-      <c r="B47" s="2">
-        <v>33.500476620370371</v>
-      </c>
-      <c r="C47" s="2">
-        <v>36557.500476620371</v>
+        <v>52</v>
+      </c>
+      <c r="B47" s="3">
+        <v>33.500739004629629</v>
+      </c>
+      <c r="C47" s="3">
+        <v>33.500739004629629</v>
       </c>
       <c r="D47">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E47">
-        <v>404</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G47" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2157,30 +2172,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="2">
-        <v>33.500490624999998</v>
-      </c>
-      <c r="C48" s="2">
-        <v>36557.500490625003</v>
+        <v>52</v>
+      </c>
+      <c r="B48" s="3">
+        <v>33.500833796296298</v>
+      </c>
+      <c r="C48" s="3">
+        <v>33.500833796296298</v>
       </c>
       <c r="D48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E48">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G48" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2189,30 +2204,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="2">
-        <v>33.500496990740743</v>
-      </c>
-      <c r="C49" s="2">
-        <v>36557.500496990739</v>
+        <v>53</v>
+      </c>
+      <c r="B49" s="3">
+        <v>33.501027430555553</v>
+      </c>
+      <c r="C49" s="3">
+        <v>33.501027430555553</v>
       </c>
       <c r="D49">
         <v>9</v>
       </c>
       <c r="E49">
-        <v>327</v>
+        <v>394</v>
       </c>
       <c r="F49" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2221,30 +2236,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>57</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B50" s="2">
-        <v>33.500504282407405</v>
-      </c>
-      <c r="C50" s="2">
-        <v>36557.500504282405</v>
+        <v>53</v>
+      </c>
+      <c r="B50" s="3">
+        <v>33.501135069444445</v>
+      </c>
+      <c r="C50" s="3">
+        <v>33.501135069444445</v>
       </c>
       <c r="D50">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E50">
-        <v>301</v>
+        <v>205</v>
       </c>
       <c r="F50" t="s">
         <v>11</v>
       </c>
       <c r="G50" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2253,30 +2268,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B51" s="2">
-        <v>33.500601388888889</v>
-      </c>
-      <c r="C51" s="2">
-        <v>36557.500601388892</v>
+        <v>53</v>
+      </c>
+      <c r="B51" s="3">
+        <v>33.501179513888886</v>
+      </c>
+      <c r="C51" s="3">
+        <v>33.501179513888886</v>
       </c>
       <c r="D51">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E51">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2285,30 +2300,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B52" s="2">
-        <v>33.500632638888888</v>
-      </c>
-      <c r="C52" s="2">
-        <v>36557.50063263889</v>
+        <v>53</v>
+      </c>
+      <c r="B52" s="3">
+        <v>33.50127199074074</v>
+      </c>
+      <c r="C52" s="3">
+        <v>33.50127199074074</v>
       </c>
       <c r="D52">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G52" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2317,30 +2332,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B53" s="2">
-        <v>33.500642245370372</v>
-      </c>
-      <c r="C53" s="2">
-        <v>36557.500642245373</v>
+        <v>53</v>
+      </c>
+      <c r="B53" s="3">
+        <v>33.501300578703706</v>
+      </c>
+      <c r="C53" s="3">
+        <v>33.501300578703706</v>
       </c>
       <c r="D53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G53" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2349,30 +2364,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="2">
-        <v>33.500650925925925</v>
-      </c>
-      <c r="C54" s="2">
-        <v>36557.500650925926</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <v>33.50133113425926</v>
+      </c>
+      <c r="C54" s="3">
+        <v>33.50133113425926</v>
       </c>
       <c r="D54">
         <v>7</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2381,30 +2396,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B55" s="2">
-        <v>33.500666550925928</v>
-      </c>
-      <c r="C55" s="2">
-        <v>36557.500666550928</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <v>33.502477777777777</v>
+      </c>
+      <c r="C55" s="3">
+        <v>33.502477777777777</v>
       </c>
       <c r="D55">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2413,7 +2428,7 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2421,22 +2436,22 @@
         <v>10</v>
       </c>
       <c r="B56" s="2">
-        <v>33.500687152777779</v>
+        <v>33.500476504629631</v>
       </c>
       <c r="C56" s="2">
-        <v>36557.50068715278</v>
+        <v>36557.500476504632</v>
       </c>
       <c r="D56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>404</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G56" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2445,30 +2460,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="3">
-        <v>33.501037731481482</v>
-      </c>
-      <c r="C57" s="3">
-        <v>33.501037731481482</v>
+        <v>10</v>
+      </c>
+      <c r="B57" s="2">
+        <v>33.500476620370371</v>
+      </c>
+      <c r="C57" s="2">
+        <v>36557.500476620371</v>
       </c>
       <c r="D57">
         <v>9</v>
       </c>
       <c r="E57">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G57" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2477,30 +2492,30 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
-      </c>
-      <c r="B58" s="3">
-        <v>33.501060763888887</v>
-      </c>
-      <c r="C58" s="3">
-        <v>33.501060763888887</v>
+        <v>10</v>
+      </c>
+      <c r="B58" s="2">
+        <v>33.500490624999998</v>
+      </c>
+      <c r="C58" s="2">
+        <v>36557.500490625003</v>
       </c>
       <c r="D58">
         <v>9</v>
       </c>
       <c r="E58">
-        <v>333</v>
+        <v>351</v>
       </c>
       <c r="F58" t="s">
         <v>11</v>
       </c>
       <c r="G58" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2509,30 +2524,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="3">
-        <v>33.501065162037037</v>
-      </c>
-      <c r="C59" s="3">
-        <v>33.501065162037037</v>
+        <v>10</v>
+      </c>
+      <c r="B59" s="2">
+        <v>33.500496990740743</v>
+      </c>
+      <c r="C59" s="2">
+        <v>36557.500496990739</v>
       </c>
       <c r="D59">
         <v>9</v>
       </c>
       <c r="E59">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F59" t="s">
         <v>11</v>
       </c>
       <c r="G59" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2541,30 +2556,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
-      </c>
-      <c r="B60" s="3">
-        <v>33.501113541666669</v>
-      </c>
-      <c r="C60" s="3">
-        <v>33.501113541666669</v>
+        <v>10</v>
+      </c>
+      <c r="B60" s="2">
+        <v>33.500504282407405</v>
+      </c>
+      <c r="C60" s="2">
+        <v>36557.500504282405</v>
       </c>
       <c r="D60">
         <v>9</v>
       </c>
       <c r="E60">
-        <v>244</v>
+        <v>301</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2573,30 +2588,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B61" s="3">
-        <v>33.501119791666667</v>
-      </c>
-      <c r="C61" s="3">
-        <v>33.501119791666667</v>
+        <v>10</v>
+      </c>
+      <c r="B61" s="2">
+        <v>33.500601388888889</v>
+      </c>
+      <c r="C61" s="2">
+        <v>36557.500601388892</v>
       </c>
       <c r="D61">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E61">
-        <v>234</v>
+        <v>14</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G61" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2605,30 +2620,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>31</v>
-      </c>
-      <c r="B62" s="3">
-        <v>33.501152314814817</v>
-      </c>
-      <c r="C62" s="3">
-        <v>33.501152314814817</v>
+        <v>10</v>
+      </c>
+      <c r="B62" s="2">
+        <v>33.500632638888888</v>
+      </c>
+      <c r="C62" s="2">
+        <v>36557.50063263889</v>
       </c>
       <c r="D62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E62">
-        <v>184</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G62" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2637,30 +2652,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
-      </c>
-      <c r="B63" s="3">
-        <v>33.501317824074071</v>
-      </c>
-      <c r="C63" s="3">
-        <v>33.501317824074071</v>
+        <v>10</v>
+      </c>
+      <c r="B63" s="2">
+        <v>33.500642245370372</v>
+      </c>
+      <c r="C63" s="2">
+        <v>36557.500642245373</v>
       </c>
       <c r="D63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E63">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G63" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2669,18 +2684,18 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="3">
-        <v>33.501464699074077</v>
-      </c>
-      <c r="C64" s="3">
-        <v>33.501464699074077</v>
+        <v>10</v>
+      </c>
+      <c r="B64" s="2">
+        <v>33.500650925925925</v>
+      </c>
+      <c r="C64" s="2">
+        <v>36557.500650925926</v>
       </c>
       <c r="D64">
         <v>7</v>
@@ -2689,10 +2704,10 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2701,30 +2716,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="3">
-        <v>33.501576273148146</v>
-      </c>
-      <c r="C65" s="3">
-        <v>33.501576273148146</v>
+        <v>10</v>
+      </c>
+      <c r="B65" s="2">
+        <v>33.500666550925928</v>
+      </c>
+      <c r="C65" s="2">
+        <v>36557.500666550928</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G65" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2733,30 +2748,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>82</v>
-      </c>
-      <c r="B66" s="3">
-        <v>33.502427662037036</v>
-      </c>
-      <c r="C66" s="3">
-        <v>33.502427662037036</v>
+        <v>10</v>
+      </c>
+      <c r="B66" s="2">
+        <v>33.500687152777779</v>
+      </c>
+      <c r="C66" s="2">
+        <v>36557.50068715278</v>
       </c>
       <c r="D66">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E66">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G66" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -2765,30 +2780,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67" s="2">
-        <v>33.500551620370373</v>
-      </c>
-      <c r="C67" s="2">
-        <v>36557.500551620367</v>
+        <v>35</v>
+      </c>
+      <c r="B67" s="3">
+        <v>33.501037731481482</v>
+      </c>
+      <c r="C67" s="3">
+        <v>33.501037731481482</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G67" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -2797,30 +2812,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="2">
-        <v>33.500564814814815</v>
-      </c>
-      <c r="C68" s="2">
-        <v>36557.500564814814</v>
+        <v>35</v>
+      </c>
+      <c r="B68" s="3">
+        <v>33.501060763888887</v>
+      </c>
+      <c r="C68" s="3">
+        <v>33.501060763888887</v>
       </c>
       <c r="D68">
         <v>9</v>
       </c>
       <c r="E68">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>54</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -2829,30 +2844,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>40</v>
-      </c>
-      <c r="B69" s="2">
-        <v>33.500579398148147</v>
-      </c>
-      <c r="C69" s="2">
-        <v>36557.500579398147</v>
+        <v>35</v>
+      </c>
+      <c r="B69" s="3">
+        <v>33.501065162037037</v>
+      </c>
+      <c r="C69" s="3">
+        <v>33.501065162037037</v>
       </c>
       <c r="D69">
         <v>9</v>
       </c>
       <c r="E69">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="F69" t="s">
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -2861,30 +2876,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="2">
-        <v>33.500579398148147</v>
-      </c>
-      <c r="C70" s="2">
-        <v>36557.500579398147</v>
+        <v>35</v>
+      </c>
+      <c r="B70" s="3">
+        <v>33.501113541666669</v>
+      </c>
+      <c r="C70" s="3">
+        <v>33.501113541666669</v>
       </c>
       <c r="D70">
         <v>9</v>
       </c>
       <c r="E70">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="F70" t="s">
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -2893,30 +2908,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>40</v>
-      </c>
-      <c r="B71" s="2">
-        <v>33.500581018518517</v>
-      </c>
-      <c r="C71" s="2">
-        <v>36557.500581018518</v>
+        <v>35</v>
+      </c>
+      <c r="B71" s="3">
+        <v>33.501119791666667</v>
+      </c>
+      <c r="C71" s="3">
+        <v>33.501119791666667</v>
       </c>
       <c r="D71">
         <v>9</v>
       </c>
       <c r="E71">
-        <v>291</v>
+        <v>234</v>
       </c>
       <c r="F71" t="s">
         <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -2925,30 +2940,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>40</v>
-      </c>
-      <c r="B72" s="2">
-        <v>33.500598958333335</v>
-      </c>
-      <c r="C72" s="2">
-        <v>36557.500598958337</v>
+        <v>35</v>
+      </c>
+      <c r="B72" s="3">
+        <v>33.501152314814817</v>
+      </c>
+      <c r="C72" s="3">
+        <v>33.501152314814817</v>
       </c>
       <c r="D72">
         <v>9</v>
       </c>
       <c r="E72">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="F72" t="s">
         <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -2957,30 +2972,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>40</v>
-      </c>
-      <c r="B73" s="2">
-        <v>33.500632638888888</v>
-      </c>
-      <c r="C73" s="2">
-        <v>36557.50063263889</v>
+        <v>35</v>
+      </c>
+      <c r="B73" s="3">
+        <v>33.501317824074071</v>
+      </c>
+      <c r="C73" s="3">
+        <v>33.501317824074071</v>
       </c>
       <c r="D73">
         <v>8</v>
       </c>
       <c r="E73">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="F73" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G73" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -2989,30 +3004,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B74" s="3">
-        <v>33.500700694444447</v>
+        <v>33.501464699074077</v>
       </c>
       <c r="C74" s="3">
-        <v>33.500700694444447</v>
+        <v>33.501464699074077</v>
       </c>
       <c r="D74">
         <v>7</v>
       </c>
       <c r="E74">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G74" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3021,30 +3036,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B75" s="3">
-        <v>33.500706597222219</v>
+        <v>33.501576273148146</v>
       </c>
       <c r="C75" s="3">
-        <v>33.500706597222219</v>
+        <v>33.501576273148146</v>
       </c>
       <c r="D75">
         <v>7</v>
       </c>
       <c r="E75">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G75" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3053,30 +3068,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="B76" s="3">
-        <v>33.500722916666668</v>
+        <v>33.502427662037036</v>
       </c>
       <c r="C76" s="3">
-        <v>33.500722916666668</v>
+        <v>33.502427662037036</v>
       </c>
       <c r="D76">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>207</v>
       </c>
       <c r="F76" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G76" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3085,30 +3100,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="3">
-        <v>33.501169560185183</v>
-      </c>
-      <c r="C77" s="3">
-        <v>33.501169560185183</v>
+        <v>45</v>
+      </c>
+      <c r="B77" s="2">
+        <v>33.500551620370373</v>
+      </c>
+      <c r="C77" s="2">
+        <v>36557.500551620367</v>
       </c>
       <c r="D77">
         <v>9</v>
       </c>
       <c r="E77">
-        <v>436</v>
+        <v>389</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3117,30 +3132,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>44</v>
-      </c>
-      <c r="B78" s="3">
-        <v>33.501175231481483</v>
-      </c>
-      <c r="C78" s="3">
-        <v>33.501175231481483</v>
+        <v>45</v>
+      </c>
+      <c r="B78" s="2">
+        <v>33.500564814814815</v>
+      </c>
+      <c r="C78" s="2">
+        <v>36557.500564814814</v>
       </c>
       <c r="D78">
         <v>9</v>
       </c>
       <c r="E78">
-        <v>427</v>
+        <v>344</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3149,30 +3164,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" s="3">
-        <v>33.50121446759259</v>
-      </c>
-      <c r="C79" s="3">
-        <v>33.50121446759259</v>
+        <v>45</v>
+      </c>
+      <c r="B79" s="2">
+        <v>33.500579398148147</v>
+      </c>
+      <c r="C79" s="2">
+        <v>36557.500579398147</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79">
-        <v>363</v>
+        <v>296</v>
       </c>
       <c r="F79" t="s">
         <v>11</v>
       </c>
       <c r="G79" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3181,30 +3196,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>44</v>
-      </c>
-      <c r="B80" s="3">
-        <v>33.501220601851848</v>
-      </c>
-      <c r="C80" s="3">
-        <v>33.501220601851848</v>
+        <v>45</v>
+      </c>
+      <c r="B80" s="2">
+        <v>33.500579398148147</v>
+      </c>
+      <c r="C80" s="2">
+        <v>36557.500579398147</v>
       </c>
       <c r="D80">
         <v>9</v>
       </c>
       <c r="E80">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="F80" t="s">
         <v>11</v>
       </c>
       <c r="G80" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3213,30 +3228,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>44</v>
-      </c>
-      <c r="B81" s="3">
-        <v>33.501374537037037</v>
-      </c>
-      <c r="C81" s="3">
-        <v>33.501374537037037</v>
+        <v>45</v>
+      </c>
+      <c r="B81" s="2">
+        <v>33.500581018518517</v>
+      </c>
+      <c r="C81" s="2">
+        <v>36557.500581018518</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E81">
-        <v>143</v>
+        <v>291</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3245,30 +3260,30 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" s="3">
-        <v>33.501403009259256</v>
-      </c>
-      <c r="C82" s="3">
-        <v>33.501403009259256</v>
+        <v>45</v>
+      </c>
+      <c r="B82" s="2">
+        <v>33.500598958333335</v>
+      </c>
+      <c r="C82" s="2">
+        <v>36557.500598958337</v>
       </c>
       <c r="D82">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E82">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="F82" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G82" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3277,30 +3292,30 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>44</v>
-      </c>
-      <c r="B83" s="3">
-        <v>33.501563310185183</v>
-      </c>
-      <c r="C83" s="3">
-        <v>33.501563310185183</v>
+        <v>45</v>
+      </c>
+      <c r="B83" s="2">
+        <v>33.500632638888888</v>
+      </c>
+      <c r="C83" s="2">
+        <v>36557.50063263889</v>
       </c>
       <c r="D83">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G83" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3309,30 +3324,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B84" s="3">
-        <v>33.501584375</v>
+        <v>33.500700694444447</v>
       </c>
       <c r="C84" s="3">
-        <v>33.501584375</v>
+        <v>33.500700694444447</v>
       </c>
       <c r="D84">
         <v>7</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G84" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3341,30 +3356,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>45</v>
       </c>
-      <c r="B85" s="2">
-        <v>33.500670254629632</v>
-      </c>
-      <c r="C85" s="2">
-        <v>36557.500670254631</v>
+      <c r="B85" s="3">
+        <v>33.500706597222219</v>
+      </c>
+      <c r="C85" s="3">
+        <v>33.500706597222219</v>
       </c>
       <c r="D85">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E85">
-        <v>275</v>
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G85" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3373,30 +3388,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>45</v>
       </c>
-      <c r="B86" s="2">
-        <v>33.500678703703706</v>
-      </c>
-      <c r="C86" s="2">
-        <v>36557.500678703705</v>
+      <c r="B86" s="3">
+        <v>33.500722916666668</v>
+      </c>
+      <c r="C86" s="3">
+        <v>33.500722916666668</v>
       </c>
       <c r="D86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E86">
-        <v>253</v>
+        <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G86" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3405,30 +3420,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>45</v>
-      </c>
-      <c r="B87" s="2">
-        <v>33.500691550925929</v>
-      </c>
-      <c r="C87" s="2">
-        <v>36557.500691550929</v>
+        <v>49</v>
+      </c>
+      <c r="B87" s="3">
+        <v>33.501169560185183</v>
+      </c>
+      <c r="C87" s="3">
+        <v>33.501169560185183</v>
       </c>
       <c r="D87">
         <v>9</v>
       </c>
       <c r="E87">
-        <v>219</v>
+        <v>436</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G87" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3437,62 +3452,62 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B88" s="3">
-        <v>33.500696180555558</v>
+        <v>33.501175231481483</v>
       </c>
       <c r="C88" s="3">
-        <v>33.500696180555558</v>
+        <v>33.501175231481483</v>
       </c>
       <c r="D88">
         <v>9</v>
       </c>
       <c r="E88">
-        <v>208</v>
+        <v>427</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G88" t="s">
+        <v>57</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" t="s">
         <v>58</v>
-      </c>
-      <c r="H88" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B89" s="3">
-        <v>33.500704166666665</v>
+        <v>33.50121446759259</v>
       </c>
       <c r="C89" s="3">
-        <v>33.500704166666665</v>
+        <v>33.50121446759259</v>
       </c>
       <c r="D89">
         <v>9</v>
       </c>
       <c r="E89">
-        <v>188</v>
+        <v>363</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3501,30 +3516,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B90" s="3">
-        <v>33.500802662037039</v>
+        <v>33.501220601851848</v>
       </c>
       <c r="C90" s="3">
-        <v>33.500802662037039</v>
+        <v>33.501220601851848</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E90">
-        <v>10</v>
+        <v>354</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G90" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3533,30 +3548,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B91" s="3">
-        <v>33.500879166666664</v>
+        <v>33.501374537037037</v>
       </c>
       <c r="C91" s="3">
-        <v>33.500879166666664</v>
+        <v>33.501374537037037</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G91" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3565,30 +3580,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B92" s="3">
-        <v>33.500914120370368</v>
+        <v>33.501403009259256</v>
       </c>
       <c r="C92" s="3">
-        <v>33.500914120370368</v>
+        <v>33.501403009259256</v>
       </c>
       <c r="D92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F92" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G92" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3597,18 +3612,18 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B93" s="3">
-        <v>33.500925578703701</v>
+        <v>33.501563310185183</v>
       </c>
       <c r="C93" s="3">
-        <v>33.500925578703701</v>
+        <v>33.501563310185183</v>
       </c>
       <c r="D93">
         <v>7</v>
@@ -3617,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G93" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3629,18 +3644,18 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B94" s="3">
-        <v>33.500951620370373</v>
+        <v>33.501584375</v>
       </c>
       <c r="C94" s="3">
-        <v>33.500951620370373</v>
+        <v>33.501584375</v>
       </c>
       <c r="D94">
         <v>7</v>
@@ -3649,10 +3664,10 @@
         <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G94" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3661,30 +3676,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>45</v>
-      </c>
-      <c r="B95" s="3">
-        <v>33.500961921296295</v>
-      </c>
-      <c r="C95" s="3">
-        <v>33.500961921296295</v>
+        <v>50</v>
+      </c>
+      <c r="B95" s="2">
+        <v>33.500670254629632</v>
+      </c>
+      <c r="C95" s="2">
+        <v>36557.500670254631</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>275</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G95" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3693,30 +3708,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>46</v>
-      </c>
-      <c r="B96" s="3">
-        <v>33.501406712962961</v>
-      </c>
-      <c r="C96" s="3">
-        <v>33.501406712962961</v>
+        <v>50</v>
+      </c>
+      <c r="B96" s="2">
+        <v>33.500678703703706</v>
+      </c>
+      <c r="C96" s="2">
+        <v>36557.500678703705</v>
       </c>
       <c r="D96">
         <v>9</v>
       </c>
       <c r="E96">
-        <v>354</v>
+        <v>253</v>
       </c>
       <c r="F96" t="s">
         <v>11</v>
       </c>
       <c r="G96" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3725,30 +3740,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>46</v>
-      </c>
-      <c r="B97" s="3">
-        <v>33.501448958333334</v>
-      </c>
-      <c r="C97" s="3">
-        <v>33.501448958333334</v>
+        <v>50</v>
+      </c>
+      <c r="B97" s="2">
+        <v>33.500691550925929</v>
+      </c>
+      <c r="C97" s="2">
+        <v>36557.500691550929</v>
       </c>
       <c r="D97">
         <v>9</v>
       </c>
       <c r="E97">
-        <v>299</v>
+        <v>219</v>
       </c>
       <c r="F97" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G97" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3757,30 +3772,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B98" s="3">
-        <v>33.501479976851854</v>
+        <v>33.500696180555558</v>
       </c>
       <c r="C98" s="3">
-        <v>33.501479976851854</v>
+        <v>33.500696180555558</v>
       </c>
       <c r="D98">
         <v>9</v>
       </c>
       <c r="E98">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G98" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3789,30 +3804,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B99" s="3">
-        <v>33.501579050925926</v>
+        <v>33.500704166666665</v>
       </c>
       <c r="C99" s="3">
-        <v>33.501579050925926</v>
+        <v>33.500704166666665</v>
       </c>
       <c r="D99">
         <v>9</v>
       </c>
       <c r="E99">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G99" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3821,30 +3836,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B100" s="3">
-        <v>33.500720023148148</v>
+        <v>33.500802662037039</v>
       </c>
       <c r="C100" s="3">
-        <v>33.500720023148148</v>
+        <v>33.500802662037039</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G100" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -3853,39 +3868,359 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B101" s="3">
-        <v>33.500866550925927</v>
+        <v>33.500879166666664</v>
       </c>
       <c r="C101" s="3">
-        <v>33.500866550925927</v>
+        <v>33.500879166666664</v>
       </c>
       <c r="D101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E101">
         <v>1</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G101" t="s">
+        <v>67</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+      <c r="I101" t="s">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>50</v>
+      </c>
+      <c r="B102" s="3">
+        <v>33.500914120370368</v>
+      </c>
+      <c r="C102" s="3">
+        <v>33.500914120370368</v>
+      </c>
+      <c r="D102">
+        <v>7</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102" t="s">
+        <v>22</v>
+      </c>
+      <c r="G102" t="s">
+        <v>85</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>50</v>
+      </c>
+      <c r="B103" s="3">
+        <v>33.500925578703701</v>
+      </c>
+      <c r="C103" s="3">
+        <v>33.500925578703701</v>
+      </c>
+      <c r="D103">
+        <v>7</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103" t="s">
+        <v>22</v>
+      </c>
+      <c r="G103" t="s">
+        <v>75</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+      <c r="I103" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>50</v>
+      </c>
+      <c r="B104" s="3">
+        <v>33.500951620370373</v>
+      </c>
+      <c r="C104" s="3">
+        <v>33.500951620370373</v>
+      </c>
+      <c r="D104">
+        <v>7</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104" t="s">
+        <v>22</v>
+      </c>
+      <c r="G104" t="s">
+        <v>69</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+      <c r="I104" t="s">
+        <v>14</v>
+      </c>
+      <c r="J104" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>50</v>
+      </c>
+      <c r="B105" s="3">
+        <v>33.500961921296295</v>
+      </c>
+      <c r="C105" s="3">
+        <v>33.500961921296295</v>
+      </c>
+      <c r="D105">
+        <v>7</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s">
+        <v>71</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+      <c r="J105" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>51</v>
+      </c>
+      <c r="B106" s="3">
+        <v>33.501406712962961</v>
+      </c>
+      <c r="C106" s="3">
+        <v>33.501406712962961</v>
+      </c>
+      <c r="D106">
+        <v>9</v>
+      </c>
+      <c r="E106">
+        <v>354</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>55</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+      <c r="I106" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" t="s">
         <v>77</v>
       </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-      <c r="I101" t="s">
-        <v>14</v>
-      </c>
-      <c r="J101" t="s">
-        <v>78</v>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>51</v>
+      </c>
+      <c r="B107" s="3">
+        <v>33.501448958333334</v>
+      </c>
+      <c r="C107" s="3">
+        <v>33.501448958333334</v>
+      </c>
+      <c r="D107">
+        <v>9</v>
+      </c>
+      <c r="E107">
+        <v>299</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>57</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+      <c r="I107" t="s">
+        <v>14</v>
+      </c>
+      <c r="J107" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" s="3">
+        <v>33.501479976851854</v>
+      </c>
+      <c r="C108" s="3">
+        <v>33.501479976851854</v>
+      </c>
+      <c r="D108">
+        <v>9</v>
+      </c>
+      <c r="E108">
+        <v>261</v>
+      </c>
+      <c r="F108" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>59</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+      <c r="J108" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>51</v>
+      </c>
+      <c r="B109" s="3">
+        <v>33.501579050925926</v>
+      </c>
+      <c r="C109" s="3">
+        <v>33.501579050925926</v>
+      </c>
+      <c r="D109">
+        <v>9</v>
+      </c>
+      <c r="E109">
+        <v>149</v>
+      </c>
+      <c r="F109" t="s">
+        <v>22</v>
+      </c>
+      <c r="G109" t="s">
+        <v>61</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+      <c r="I109" t="s">
+        <v>14</v>
+      </c>
+      <c r="J109" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>52</v>
+      </c>
+      <c r="B110" s="3">
+        <v>33.500720023148148</v>
+      </c>
+      <c r="C110" s="3">
+        <v>33.500720023148148</v>
+      </c>
+      <c r="D110">
+        <v>9</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" t="s">
+        <v>63</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+      <c r="I110" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111" s="3">
+        <v>33.500866550925927</v>
+      </c>
+      <c r="C111" s="3">
+        <v>33.500866550925927</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111" t="s">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s">
+        <v>82</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Thomas Martin.xlsx
+++ b/USASwimming/Times For Thomas Martin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="96">
   <si>
     <t>Event</t>
   </si>
@@ -57,21 +57,36 @@
     <t>50 FR</t>
   </si>
   <si>
+    <t>"BB"</t>
+  </si>
+  <si>
+    <t>2019 CT WRAT Maura Marden Free</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>PAC</t>
+  </si>
+  <si>
+    <t>11/16/2019</t>
+  </si>
+  <si>
     <t>"B"</t>
   </si>
   <si>
     <t>2019 CT RYWC Candlewood Cup</t>
   </si>
   <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>PAC</t>
-  </si>
-  <si>
     <t>11/9/2019</t>
   </si>
   <si>
+    <t>2019 CT CDOG December 10 &amp; U Quadrath</t>
+  </si>
+  <si>
+    <t>12/8/2019</t>
+  </si>
+  <si>
     <t>2019 CT Cheshire Y Sea Dog IMX</t>
   </si>
   <si>
@@ -159,18 +174,27 @@
     <t>3/4/2018</t>
   </si>
   <si>
+    <t>200 FR</t>
+  </si>
+  <si>
+    <t>2019 CT SOCO 18th Annual Hutchinson</t>
+  </si>
+  <si>
+    <t>12/7/2019</t>
+  </si>
+  <si>
     <t>50 BK</t>
   </si>
   <si>
-    <t>"BB"</t>
-  </si>
-  <si>
     <t>1/19/2019</t>
   </si>
   <si>
     <t>43.38r</t>
   </si>
   <si>
+    <t>44.68r</t>
+  </si>
+  <si>
     <t>100 BK</t>
   </si>
   <si>
@@ -283,9 +307,6 @@
   </si>
   <si>
     <t>6/24/2017</t>
-  </si>
-  <si>
-    <t>200 FR</t>
   </si>
   <si>
     <t>5/3/2019</t>
@@ -649,7 +670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -708,16 +729,16 @@
         <v>10</v>
       </c>
       <c r="B2" s="2">
-        <v>33.500407175925929</v>
+        <v>33.50039837962963</v>
       </c>
       <c r="C2" s="2">
-        <v>36557.500407175925</v>
+        <v>36557.500398379627</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>447</v>
+        <v>487</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -740,22 +761,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <v>33.500422453703706</v>
+        <v>33.500407175925929</v>
       </c>
       <c r="C3" s="2">
-        <v>36557.500422453704</v>
+        <v>36557.500407175925</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>379</v>
+        <v>447</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
         <v>13</v>
@@ -764,7 +785,7 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -772,22 +793,22 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>33.500438425925928</v>
+        <v>33.500420949074076</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.500438425923</v>
+        <v>36557.500420949073</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>311</v>
+        <v>386</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
         <v>13</v>
@@ -796,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -804,22 +825,22 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500439351851853</v>
+        <v>33.500422453703706</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500439351854</v>
+        <v>36557.500422453704</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
@@ -828,7 +849,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -836,19 +857,19 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>33.500445023148146</v>
+        <v>33.500438425925928</v>
       </c>
       <c r="C6" s="2">
-        <v>36557.50044502315</v>
+        <v>36557.500438425923</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -868,19 +889,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>33.500491550925929</v>
+        <v>33.500439351851853</v>
       </c>
       <c r="C7" s="2">
-        <v>36557.500491550927</v>
+        <v>36557.500439351854</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>111</v>
+        <v>307</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
@@ -900,22 +921,22 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.500500925925927</v>
+        <v>33.500445023148146</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.500500925926</v>
+        <v>36557.50044502315</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>81</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
         <v>13</v>
@@ -924,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,22 +953,22 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500505324074076</v>
+        <v>33.500491550925929</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500505324075</v>
+        <v>36557.500491550927</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
         <v>13</v>
@@ -956,7 +977,7 @@
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -964,22 +985,22 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500535416666665</v>
+        <v>33.500500925925927</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500535416664</v>
+        <v>36557.500500925926</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -988,7 +1009,7 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -996,22 +1017,22 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500548379629628</v>
+        <v>33.500505324074076</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500548379627</v>
+        <v>36557.500505324075</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -1020,30 +1041,30 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="3">
-        <v>33.500913425925923</v>
-      </c>
-      <c r="C12" s="3">
-        <v>33.500913425925923</v>
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>33.500535416666665</v>
+      </c>
+      <c r="C12" s="2">
+        <v>36557.500535416664</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E12">
-        <v>375</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H12" t="s">
         <v>13</v>
@@ -1052,30 +1073,30 @@
         <v>14</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="3">
-        <v>33.500964236111109</v>
-      </c>
-      <c r="C13" s="3">
-        <v>33.500964236111109</v>
+        <v>10</v>
+      </c>
+      <c r="B13" s="2">
+        <v>33.500548379629628</v>
+      </c>
+      <c r="C13" s="2">
+        <v>36557.500548379627</v>
       </c>
       <c r="D13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>273</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
         <v>13</v>
@@ -1084,30 +1105,30 @@
         <v>14</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B14" s="3">
-        <v>33.500995486111108</v>
+        <v>33.500910069444444</v>
       </c>
       <c r="C14" s="3">
-        <v>33.500995486111108</v>
+        <v>33.500910069444444</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E14">
-        <v>216</v>
+        <v>382</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
         <v>13</v>
@@ -1116,30 +1137,30 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3">
-        <v>33.501104166666664</v>
+        <v>33.500913425925923</v>
       </c>
       <c r="C15" s="3">
-        <v>33.501104166666664</v>
+        <v>33.500913425925923</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1148,30 +1169,30 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B16" s="3">
-        <v>33.501104976851849</v>
+        <v>33.500964236111109</v>
       </c>
       <c r="C16" s="3">
-        <v>33.501104976851849</v>
+        <v>33.500964236111109</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1180,30 +1201,30 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3">
-        <v>33.501150115740742</v>
+        <v>33.500995486111108</v>
       </c>
       <c r="C17" s="3">
-        <v>33.501150115740742</v>
+        <v>33.500995486111108</v>
       </c>
       <c r="D17">
         <v>8</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1212,30 +1233,30 @@
         <v>14</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B18" s="3">
-        <v>33.501234027777777</v>
+        <v>33.501104166666664</v>
       </c>
       <c r="C18" s="3">
-        <v>33.501234027777777</v>
+        <v>33.501104166666664</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1244,62 +1265,62 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B19" s="2">
-        <v>33.500460879629628</v>
-      </c>
-      <c r="C19" s="2">
-        <v>36557.50046087963</v>
+        <v>40</v>
+      </c>
+      <c r="B19" s="3">
+        <v>33.501104976851849</v>
+      </c>
+      <c r="C19" s="3">
+        <v>33.501104976851849</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19">
-        <v>480</v>
+        <v>56</v>
       </c>
       <c r="F19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" t="s">
         <v>46</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" t="s">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" s="2">
-        <v>33.500474189814817</v>
-      </c>
-      <c r="C20" s="2">
-        <v>36557.500474189816</v>
+        <v>40</v>
+      </c>
+      <c r="B20" s="3">
+        <v>33.501150115740742</v>
+      </c>
+      <c r="C20" s="3">
+        <v>33.501150115740742</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20">
-        <v>425</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1308,30 +1329,30 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="2">
-        <v>33.500475925925926</v>
-      </c>
-      <c r="C21" s="2">
-        <v>36557.500475925925</v>
+        <v>40</v>
+      </c>
+      <c r="B21" s="3">
+        <v>33.501234027777777</v>
+      </c>
+      <c r="C21" s="3">
+        <v>33.501234027777777</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21">
-        <v>417</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1340,30 +1361,30 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="2">
-        <v>33.500487962962964</v>
-      </c>
-      <c r="C22" s="2">
-        <v>36557.500487962963</v>
+        <v>50</v>
+      </c>
+      <c r="B22" s="3">
+        <v>33.501940740740743</v>
+      </c>
+      <c r="C22" s="3">
+        <v>33.501940740740743</v>
       </c>
       <c r="D22">
         <v>9</v>
       </c>
       <c r="E22">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="F22" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1372,30 +1393,30 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2">
-        <v>33.500495486111113</v>
-      </c>
-      <c r="C23" s="2">
-        <v>36557.500495486114</v>
+        <v>50</v>
+      </c>
+      <c r="B23" s="3">
+        <v>33.501998379629633</v>
+      </c>
+      <c r="C23" s="3">
+        <v>33.501998379629633</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E23">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1404,30 +1425,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" t="s">
-        <v>48</v>
+        <v>53</v>
+      </c>
+      <c r="B24" s="2">
+        <v>33.500460879629628</v>
       </c>
       <c r="C24" s="2">
-        <v>36557.500502083334</v>
+        <v>36557.50046087963</v>
       </c>
       <c r="D24">
         <v>9</v>
       </c>
       <c r="E24">
-        <v>315</v>
+        <v>480</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1436,30 +1457,30 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2">
-        <v>33.50053599537037</v>
+        <v>33.500474189814817</v>
       </c>
       <c r="C25" s="2">
-        <v>36557.500535995372</v>
+        <v>36557.500474189816</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25">
-        <v>198</v>
+        <v>425</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1468,27 +1489,27 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2">
-        <v>33.500553935185188</v>
+        <v>33.500474189814817</v>
       </c>
       <c r="C26" s="2">
-        <v>36557.500553935184</v>
+        <v>36557.500474189816</v>
       </c>
       <c r="D26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E26">
-        <v>143</v>
+        <v>425</v>
       </c>
       <c r="F26" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G26" t="s">
         <v>25</v>
@@ -1500,30 +1521,30 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2">
-        <v>33.500568287037034</v>
+        <v>33.500475925925926</v>
       </c>
       <c r="C27" s="2">
-        <v>36557.50056828704</v>
+        <v>36557.500475925925</v>
       </c>
       <c r="D27">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E27">
-        <v>104</v>
+        <v>417</v>
       </c>
       <c r="F27" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1532,30 +1553,30 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2">
-        <v>33.500572685185183</v>
+        <v>33.500487962962964</v>
       </c>
       <c r="C28" s="2">
-        <v>36557.500572685189</v>
+        <v>36557.500487962963</v>
       </c>
       <c r="D28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>93</v>
+        <v>369</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1564,30 +1585,30 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2">
-        <v>33.500585995370372</v>
+        <v>33.500495486111113</v>
       </c>
       <c r="C29" s="2">
-        <v>36557.500585995367</v>
+        <v>36557.500495486114</v>
       </c>
       <c r="D29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="F29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1596,30 +1617,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="3">
-        <v>33.50107372685185</v>
-      </c>
-      <c r="C30" s="3">
-        <v>33.50107372685185</v>
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="2">
+        <v>36557.500502083334</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1628,30 +1649,30 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="3">
-        <v>33.501076967592596</v>
-      </c>
-      <c r="C31" s="3">
-        <v>33.501076967592596</v>
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2">
+        <v>36557.500517129629</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="F31" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H31" t="s">
         <v>13</v>
@@ -1660,30 +1681,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2">
-        <v>33.500588888888892</v>
+        <v>33.50053599537037</v>
       </c>
       <c r="C32" s="2">
-        <v>36557.500588888892</v>
+        <v>36557.500535995372</v>
       </c>
       <c r="D32">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G32" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1692,30 +1713,30 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2">
-        <v>33.500594097222219</v>
+        <v>33.500553935185188</v>
       </c>
       <c r="C33" s="2">
-        <v>36557.500594097219</v>
+        <v>36557.500553935184</v>
       </c>
       <c r="D33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="F33" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -1724,30 +1745,30 @@
         <v>14</v>
       </c>
       <c r="J33" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2">
-        <v>33.500610879629633</v>
+        <v>33.500568287037034</v>
       </c>
       <c r="C34" s="2">
-        <v>36557.50061087963</v>
+        <v>36557.50056828704</v>
       </c>
       <c r="D34">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E34">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1756,30 +1777,30 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2">
-        <v>33.500615856481481</v>
+        <v>33.500572685185183</v>
       </c>
       <c r="C35" s="2">
-        <v>36557.500615856479</v>
+        <v>36557.500572685189</v>
       </c>
       <c r="D35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35">
-        <v>164</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G35" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1788,30 +1809,30 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2">
-        <v>33.500625925925924</v>
+        <v>33.500585995370372</v>
       </c>
       <c r="C36" s="2">
-        <v>36557.500625925924</v>
+        <v>36557.500585995367</v>
       </c>
       <c r="D36">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E36">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G36" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -1820,30 +1841,30 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="2">
-        <v>33.500669907407406</v>
-      </c>
-      <c r="C37" s="2">
-        <v>36557.500669907407</v>
+        <v>57</v>
+      </c>
+      <c r="B37" s="3">
+        <v>33.501021874999999</v>
+      </c>
+      <c r="C37" s="3">
+        <v>33.501021874999999</v>
       </c>
       <c r="D37">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E37">
-        <v>42</v>
+        <v>420</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G37" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1852,30 +1873,30 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>50</v>
-      </c>
-      <c r="B38" s="2">
-        <v>33.500688078703703</v>
-      </c>
-      <c r="C38" s="2">
-        <v>36557.500688078704</v>
+        <v>57</v>
+      </c>
+      <c r="B38" s="3">
+        <v>33.50107372685185</v>
+      </c>
+      <c r="C38" s="3">
+        <v>33.50107372685185</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E38">
-        <v>15</v>
+        <v>325</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -1884,30 +1905,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3">
-        <v>33.500706944444445</v>
+        <v>33.501076967592596</v>
       </c>
       <c r="C39" s="3">
-        <v>33.500706944444445</v>
+        <v>33.501076967592596</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>319</v>
       </c>
       <c r="F39" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -1916,126 +1937,126 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" s="3">
-        <v>33.500760532407405</v>
-      </c>
-      <c r="C40" s="3">
-        <v>33.500760532407405</v>
+        <v>58</v>
+      </c>
+      <c r="B40" s="2">
+        <v>33.500588888888892</v>
+      </c>
+      <c r="C40" s="2">
+        <v>36557.500588888892</v>
       </c>
       <c r="D40">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" t="s">
         <v>22</v>
-      </c>
-      <c r="G40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" s="3">
-        <v>33.501292129629633</v>
-      </c>
-      <c r="C41" s="3">
-        <v>33.501292129629633</v>
+        <v>58</v>
+      </c>
+      <c r="B41" s="2">
+        <v>33.50059097222222</v>
+      </c>
+      <c r="C41" s="2">
+        <v>36557.500590972224</v>
       </c>
       <c r="D41">
         <v>9</v>
       </c>
       <c r="E41">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J41" t="s">
         <v>20</v>
-      </c>
-      <c r="H41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I41" t="s">
-        <v>14</v>
-      </c>
-      <c r="J41" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>51</v>
-      </c>
-      <c r="B42" s="3">
-        <v>33.501327199074076</v>
-      </c>
-      <c r="C42" s="3">
-        <v>33.501327199074076</v>
+        <v>58</v>
+      </c>
+      <c r="B42" s="2">
+        <v>33.500594097222219</v>
+      </c>
+      <c r="C42" s="2">
+        <v>36557.500594097219</v>
       </c>
       <c r="D42">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E42">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="F42" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" t="s">
         <v>18</v>
-      </c>
-      <c r="H42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I42" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="3">
-        <v>33.501343981481483</v>
-      </c>
-      <c r="C43" s="3">
-        <v>33.501343981481483</v>
+        <v>58</v>
+      </c>
+      <c r="B43" s="2">
+        <v>33.500610879629633</v>
+      </c>
+      <c r="C43" s="2">
+        <v>36557.50061087963</v>
       </c>
       <c r="D43">
         <v>9</v>
       </c>
       <c r="E43">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G43" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2044,30 +2065,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" s="3">
-        <v>33.501373263888887</v>
-      </c>
-      <c r="C44" s="3">
-        <v>33.501373263888887</v>
+        <v>58</v>
+      </c>
+      <c r="B44" s="2">
+        <v>33.500615856481481</v>
+      </c>
+      <c r="C44" s="2">
+        <v>36557.500615856479</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="F44" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2076,30 +2097,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B45" s="2">
-        <v>33.500487962962964</v>
+        <v>33.500625925925924</v>
       </c>
       <c r="C45" s="2">
-        <v>36557.500487962963</v>
+        <v>36557.500625925924</v>
       </c>
       <c r="D45">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E45">
-        <v>291</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G45" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2108,30 +2129,30 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B46" s="2">
-        <v>33.500504629629631</v>
+        <v>33.500669907407406</v>
       </c>
       <c r="C46" s="2">
-        <v>36557.500504629628</v>
+        <v>36557.500669907407</v>
       </c>
       <c r="D46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E46">
-        <v>236</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G46" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
         <v>13</v>
@@ -2140,30 +2161,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="3">
-        <v>33.500739004629629</v>
-      </c>
-      <c r="C47" s="3">
-        <v>33.500739004629629</v>
+        <v>58</v>
+      </c>
+      <c r="B47" s="2">
+        <v>33.500688078703703</v>
+      </c>
+      <c r="C47" s="2">
+        <v>36557.500688078704</v>
       </c>
       <c r="D47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2172,18 +2193,18 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B48" s="3">
-        <v>33.500833796296298</v>
+        <v>33.500706944444445</v>
       </c>
       <c r="C48" s="3">
-        <v>33.500833796296298</v>
+        <v>33.500706944444445</v>
       </c>
       <c r="D48">
         <v>8</v>
@@ -2192,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2204,30 +2225,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B49" s="3">
-        <v>33.501027430555553</v>
+        <v>33.500760532407405</v>
       </c>
       <c r="C49" s="3">
-        <v>33.501027430555553</v>
+        <v>33.500760532407405</v>
       </c>
       <c r="D49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E49">
-        <v>394</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G49" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2236,30 +2257,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3">
-        <v>33.501135069444445</v>
+        <v>33.501279861111108</v>
       </c>
       <c r="C50" s="3">
-        <v>33.501135069444445</v>
+        <v>33.501279861111108</v>
       </c>
       <c r="D50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E50">
-        <v>205</v>
+        <v>265</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2268,30 +2289,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3">
-        <v>33.501179513888886</v>
+        <v>33.501292129629633</v>
       </c>
       <c r="C51" s="3">
-        <v>33.501179513888886</v>
+        <v>33.501292129629633</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
       <c r="E51">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="F51" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2300,30 +2321,30 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B52" s="3">
-        <v>33.50127199074074</v>
+        <v>33.501327199074076</v>
       </c>
       <c r="C52" s="3">
-        <v>33.50127199074074</v>
+        <v>33.501327199074076</v>
       </c>
       <c r="D52">
         <v>8</v>
       </c>
       <c r="E52">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="F52" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G52" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="H52" t="s">
         <v>13</v>
@@ -2332,30 +2353,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B53" s="3">
-        <v>33.501300578703706</v>
+        <v>33.501343981481483</v>
       </c>
       <c r="C53" s="3">
-        <v>33.501300578703706</v>
+        <v>33.501343981481483</v>
       </c>
       <c r="D53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G53" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2364,30 +2385,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B54" s="3">
-        <v>33.50133113425926</v>
+        <v>33.501373263888887</v>
       </c>
       <c r="C54" s="3">
-        <v>33.50133113425926</v>
+        <v>33.501373263888887</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="F54" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G54" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2396,30 +2417,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" s="3">
-        <v>33.502477777777777</v>
-      </c>
-      <c r="C55" s="3">
-        <v>33.502477777777777</v>
+        <v>60</v>
+      </c>
+      <c r="B55" s="2">
+        <v>33.500487962962964</v>
+      </c>
+      <c r="C55" s="2">
+        <v>36557.500487962963</v>
       </c>
       <c r="D55">
         <v>9</v>
       </c>
       <c r="E55">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2428,30 +2449,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>33.500476504629631</v>
+        <v>33.500504629629631</v>
       </c>
       <c r="C56" s="2">
-        <v>36557.500476504632</v>
+        <v>36557.500504629628</v>
       </c>
       <c r="D56">
         <v>9</v>
       </c>
       <c r="E56">
-        <v>404</v>
+        <v>236</v>
       </c>
       <c r="F56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2460,30 +2481,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
-        <v>33.500476620370371</v>
+        <v>33.500521064814812</v>
       </c>
       <c r="C57" s="2">
-        <v>36557.500476620371</v>
+        <v>36557.500521064816</v>
       </c>
       <c r="D57">
         <v>9</v>
       </c>
       <c r="E57">
-        <v>404</v>
+        <v>186</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G57" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2492,30 +2513,30 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B58" s="2">
-        <v>33.500490624999998</v>
-      </c>
-      <c r="C58" s="2">
-        <v>36557.500490625003</v>
+        <v>60</v>
+      </c>
+      <c r="B58" s="3">
+        <v>33.500739004629629</v>
+      </c>
+      <c r="C58" s="3">
+        <v>33.500739004629629</v>
       </c>
       <c r="D58">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E58">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2524,30 +2545,30 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B59" s="2">
-        <v>33.500496990740743</v>
-      </c>
-      <c r="C59" s="2">
-        <v>36557.500496990739</v>
+        <v>60</v>
+      </c>
+      <c r="B59" s="3">
+        <v>33.500833796296298</v>
+      </c>
+      <c r="C59" s="3">
+        <v>33.500833796296298</v>
       </c>
       <c r="D59">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="H59" t="s">
         <v>13</v>
@@ -2556,30 +2577,30 @@
         <v>14</v>
       </c>
       <c r="J59" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B60" s="2">
-        <v>33.500504282407405</v>
-      </c>
-      <c r="C60" s="2">
-        <v>36557.500504282405</v>
+        <v>61</v>
+      </c>
+      <c r="B60" s="3">
+        <v>33.501027430555553</v>
+      </c>
+      <c r="C60" s="3">
+        <v>33.501027430555553</v>
       </c>
       <c r="D60">
         <v>9</v>
       </c>
       <c r="E60">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="F60" t="s">
         <v>11</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2588,30 +2609,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="2">
-        <v>33.500601388888889</v>
-      </c>
-      <c r="C61" s="2">
-        <v>36557.500601388892</v>
+        <v>61</v>
+      </c>
+      <c r="B61" s="3">
+        <v>33.501135069444445</v>
+      </c>
+      <c r="C61" s="3">
+        <v>33.501135069444445</v>
       </c>
       <c r="D61">
         <v>8</v>
       </c>
       <c r="E61">
-        <v>14</v>
+        <v>205</v>
       </c>
       <c r="F61" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2620,30 +2641,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B62" s="2">
-        <v>33.500632638888888</v>
-      </c>
-      <c r="C62" s="2">
-        <v>36557.50063263889</v>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <v>33.501179513888886</v>
+      </c>
+      <c r="C62" s="3">
+        <v>33.501179513888886</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="F62" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G62" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2652,30 +2673,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B63" s="2">
-        <v>33.500642245370372</v>
-      </c>
-      <c r="C63" s="2">
-        <v>36557.500642245373</v>
+        <v>61</v>
+      </c>
+      <c r="B63" s="3">
+        <v>33.50127199074074</v>
+      </c>
+      <c r="C63" s="3">
+        <v>33.50127199074074</v>
       </c>
       <c r="D63">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G63" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2684,30 +2705,30 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B64" s="2">
-        <v>33.500650925925925</v>
-      </c>
-      <c r="C64" s="2">
-        <v>36557.500650925926</v>
+        <v>61</v>
+      </c>
+      <c r="B64" s="3">
+        <v>33.501300578703706</v>
+      </c>
+      <c r="C64" s="3">
+        <v>33.501300578703706</v>
       </c>
       <c r="D64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G64" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="H64" t="s">
         <v>13</v>
@@ -2716,30 +2737,30 @@
         <v>14</v>
       </c>
       <c r="J64" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B65" s="2">
-        <v>33.500666550925928</v>
-      </c>
-      <c r="C65" s="2">
-        <v>36557.500666550928</v>
+        <v>61</v>
+      </c>
+      <c r="B65" s="3">
+        <v>33.50133113425926</v>
+      </c>
+      <c r="C65" s="3">
+        <v>33.50133113425926</v>
       </c>
       <c r="D65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G65" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2748,30 +2769,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B66" s="2">
-        <v>33.500687152777779</v>
-      </c>
-      <c r="C66" s="2">
-        <v>36557.50068715278</v>
+        <v>62</v>
+      </c>
+      <c r="B66" s="3">
+        <v>33.502477777777777</v>
+      </c>
+      <c r="C66" s="3">
+        <v>33.502477777777777</v>
       </c>
       <c r="D66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E66">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="F66" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -2780,30 +2801,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>35</v>
-      </c>
-      <c r="B67" s="3">
-        <v>33.501037731481482</v>
-      </c>
-      <c r="C67" s="3">
-        <v>33.501037731481482</v>
+        <v>10</v>
+      </c>
+      <c r="B67" s="2">
+        <v>33.500476504629631</v>
+      </c>
+      <c r="C67" s="2">
+        <v>36557.500476504632</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="F67" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -2812,30 +2833,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="3">
-        <v>33.501060763888887</v>
-      </c>
-      <c r="C68" s="3">
-        <v>33.501060763888887</v>
+        <v>10</v>
+      </c>
+      <c r="B68" s="2">
+        <v>33.500476620370371</v>
+      </c>
+      <c r="C68" s="2">
+        <v>36557.500476620371</v>
       </c>
       <c r="D68">
         <v>9</v>
       </c>
       <c r="E68">
-        <v>333</v>
+        <v>404</v>
       </c>
       <c r="F68" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -2844,30 +2865,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="3">
-        <v>33.501065162037037</v>
-      </c>
-      <c r="C69" s="3">
-        <v>33.501065162037037</v>
+        <v>10</v>
+      </c>
+      <c r="B69" s="2">
+        <v>33.500490624999998</v>
+      </c>
+      <c r="C69" s="2">
+        <v>36557.500490625003</v>
       </c>
       <c r="D69">
         <v>9</v>
       </c>
       <c r="E69">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G69" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -2876,30 +2897,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="3">
-        <v>33.501113541666669</v>
-      </c>
-      <c r="C70" s="3">
-        <v>33.501113541666669</v>
+        <v>10</v>
+      </c>
+      <c r="B70" s="2">
+        <v>33.500496990740743</v>
+      </c>
+      <c r="C70" s="2">
+        <v>36557.500496990739</v>
       </c>
       <c r="D70">
         <v>9</v>
       </c>
       <c r="E70">
-        <v>244</v>
+        <v>327</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G70" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -2908,30 +2929,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>35</v>
-      </c>
-      <c r="B71" s="3">
-        <v>33.501119791666667</v>
-      </c>
-      <c r="C71" s="3">
-        <v>33.501119791666667</v>
+        <v>10</v>
+      </c>
+      <c r="B71" s="2">
+        <v>33.500504282407405</v>
+      </c>
+      <c r="C71" s="2">
+        <v>36557.500504282405</v>
       </c>
       <c r="D71">
         <v>9</v>
       </c>
       <c r="E71">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="F71" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G71" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -2940,30 +2961,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>35</v>
-      </c>
-      <c r="B72" s="3">
-        <v>33.501152314814817</v>
-      </c>
-      <c r="C72" s="3">
-        <v>33.501152314814817</v>
+        <v>10</v>
+      </c>
+      <c r="B72" s="2">
+        <v>33.500601388888889</v>
+      </c>
+      <c r="C72" s="2">
+        <v>36557.500601388892</v>
       </c>
       <c r="D72">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E72">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="F72" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G72" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -2972,30 +2993,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>35</v>
-      </c>
-      <c r="B73" s="3">
-        <v>33.501317824074071</v>
-      </c>
-      <c r="C73" s="3">
-        <v>33.501317824074071</v>
+        <v>10</v>
+      </c>
+      <c r="B73" s="2">
+        <v>33.500632638888888</v>
+      </c>
+      <c r="C73" s="2">
+        <v>36557.50063263889</v>
       </c>
       <c r="D73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E73">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G73" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3004,18 +3025,18 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>35</v>
-      </c>
-      <c r="B74" s="3">
-        <v>33.501464699074077</v>
-      </c>
-      <c r="C74" s="3">
-        <v>33.501464699074077</v>
+        <v>10</v>
+      </c>
+      <c r="B74" s="2">
+        <v>33.500642245370372</v>
+      </c>
+      <c r="C74" s="2">
+        <v>36557.500642245373</v>
       </c>
       <c r="D74">
         <v>7</v>
@@ -3024,10 +3045,10 @@
         <v>1</v>
       </c>
       <c r="F74" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G74" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3036,18 +3057,18 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>35</v>
-      </c>
-      <c r="B75" s="3">
-        <v>33.501576273148146</v>
-      </c>
-      <c r="C75" s="3">
-        <v>33.501576273148146</v>
+        <v>10</v>
+      </c>
+      <c r="B75" s="2">
+        <v>33.500650925925925</v>
+      </c>
+      <c r="C75" s="2">
+        <v>36557.500650925926</v>
       </c>
       <c r="D75">
         <v>7</v>
@@ -3056,10 +3077,10 @@
         <v>1</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G75" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3068,30 +3089,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>87</v>
-      </c>
-      <c r="B76" s="3">
-        <v>33.502427662037036</v>
-      </c>
-      <c r="C76" s="3">
-        <v>33.502427662037036</v>
+        <v>10</v>
+      </c>
+      <c r="B76" s="2">
+        <v>33.500666550925928</v>
+      </c>
+      <c r="C76" s="2">
+        <v>36557.500666550928</v>
       </c>
       <c r="D76">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G76" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3100,30 +3121,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B77" s="2">
-        <v>33.500551620370373</v>
+        <v>33.500687152777779</v>
       </c>
       <c r="C77" s="2">
-        <v>36557.500551620367</v>
+        <v>36557.50068715278</v>
       </c>
       <c r="D77">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E77">
-        <v>389</v>
+        <v>1</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="G77" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3132,30 +3153,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>45</v>
-      </c>
-      <c r="B78" s="2">
-        <v>33.500564814814815</v>
-      </c>
-      <c r="C78" s="2">
-        <v>36557.500564814814</v>
+        <v>40</v>
+      </c>
+      <c r="B78" s="3">
+        <v>33.501037731481482</v>
+      </c>
+      <c r="C78" s="3">
+        <v>33.501037731481482</v>
       </c>
       <c r="D78">
         <v>9</v>
       </c>
       <c r="E78">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3164,30 +3185,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>45</v>
-      </c>
-      <c r="B79" s="2">
-        <v>33.500579398148147</v>
-      </c>
-      <c r="C79" s="2">
-        <v>36557.500579398147</v>
+        <v>40</v>
+      </c>
+      <c r="B79" s="3">
+        <v>33.501060763888887</v>
+      </c>
+      <c r="C79" s="3">
+        <v>33.501060763888887</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3196,30 +3217,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="2">
-        <v>33.500579398148147</v>
-      </c>
-      <c r="C80" s="2">
-        <v>36557.500579398147</v>
+        <v>40</v>
+      </c>
+      <c r="B80" s="3">
+        <v>33.501065162037037</v>
+      </c>
+      <c r="C80" s="3">
+        <v>33.501065162037037</v>
       </c>
       <c r="D80">
         <v>9</v>
       </c>
       <c r="E80">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="F80" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3228,30 +3249,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>45</v>
-      </c>
-      <c r="B81" s="2">
-        <v>33.500581018518517</v>
-      </c>
-      <c r="C81" s="2">
-        <v>36557.500581018518</v>
+        <v>40</v>
+      </c>
+      <c r="B81" s="3">
+        <v>33.501113541666669</v>
+      </c>
+      <c r="C81" s="3">
+        <v>33.501113541666669</v>
       </c>
       <c r="D81">
         <v>9</v>
       </c>
       <c r="E81">
-        <v>291</v>
+        <v>244</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3260,30 +3281,30 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>45</v>
-      </c>
-      <c r="B82" s="2">
-        <v>33.500598958333335</v>
-      </c>
-      <c r="C82" s="2">
-        <v>36557.500598958337</v>
+        <v>40</v>
+      </c>
+      <c r="B82" s="3">
+        <v>33.501119791666667</v>
+      </c>
+      <c r="C82" s="3">
+        <v>33.501119791666667</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
       <c r="E82">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F82" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3292,30 +3313,30 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>45</v>
-      </c>
-      <c r="B83" s="2">
-        <v>33.500632638888888</v>
-      </c>
-      <c r="C83" s="2">
-        <v>36557.50063263889</v>
+        <v>40</v>
+      </c>
+      <c r="B83" s="3">
+        <v>33.501152314814817</v>
+      </c>
+      <c r="C83" s="3">
+        <v>33.501152314814817</v>
       </c>
       <c r="D83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E83">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="F83" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3324,30 +3345,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B84" s="3">
-        <v>33.500700694444447</v>
+        <v>33.501317824074071</v>
       </c>
       <c r="C84" s="3">
-        <v>33.500700694444447</v>
+        <v>33.501317824074071</v>
       </c>
       <c r="D84">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E84">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G84" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3356,30 +3377,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B85" s="3">
-        <v>33.500706597222219</v>
+        <v>33.501464699074077</v>
       </c>
       <c r="C85" s="3">
-        <v>33.500706597222219</v>
+        <v>33.501464699074077</v>
       </c>
       <c r="D85">
         <v>7</v>
       </c>
       <c r="E85">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G85" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3388,18 +3409,18 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>68</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B86" s="3">
-        <v>33.500722916666668</v>
+        <v>33.501576273148146</v>
       </c>
       <c r="C86" s="3">
-        <v>33.500722916666668</v>
+        <v>33.501576273148146</v>
       </c>
       <c r="D86">
         <v>7</v>
@@ -3408,10 +3429,10 @@
         <v>1</v>
       </c>
       <c r="F86" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G86" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3420,30 +3441,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B87" s="3">
-        <v>33.501169560185183</v>
+        <v>33.502427662037036</v>
       </c>
       <c r="C87" s="3">
-        <v>33.501169560185183</v>
+        <v>33.502427662037036</v>
       </c>
       <c r="D87">
         <v>9</v>
       </c>
       <c r="E87">
-        <v>436</v>
+        <v>207</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G87" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3452,30 +3473,30 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" s="3">
-        <v>33.501175231481483</v>
-      </c>
-      <c r="C88" s="3">
-        <v>33.501175231481483</v>
+        <v>53</v>
+      </c>
+      <c r="B88" s="2">
+        <v>33.500551620370373</v>
+      </c>
+      <c r="C88" s="2">
+        <v>36557.500551620367</v>
       </c>
       <c r="D88">
         <v>9</v>
       </c>
       <c r="E88">
-        <v>427</v>
+        <v>389</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="G88" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3484,30 +3505,30 @@
         <v>14</v>
       </c>
       <c r="J88" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>49</v>
-      </c>
-      <c r="B89" s="3">
-        <v>33.50121446759259</v>
-      </c>
-      <c r="C89" s="3">
-        <v>33.50121446759259</v>
+        <v>53</v>
+      </c>
+      <c r="B89" s="2">
+        <v>33.500564814814815</v>
+      </c>
+      <c r="C89" s="2">
+        <v>36557.500564814814</v>
       </c>
       <c r="D89">
         <v>9</v>
       </c>
       <c r="E89">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="F89" t="s">
         <v>11</v>
       </c>
       <c r="G89" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3516,30 +3537,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>49</v>
-      </c>
-      <c r="B90" s="3">
-        <v>33.501220601851848</v>
-      </c>
-      <c r="C90" s="3">
-        <v>33.501220601851848</v>
+        <v>53</v>
+      </c>
+      <c r="B90" s="2">
+        <v>33.500579398148147</v>
+      </c>
+      <c r="C90" s="2">
+        <v>36557.500579398147</v>
       </c>
       <c r="D90">
         <v>9</v>
       </c>
       <c r="E90">
-        <v>354</v>
+        <v>296</v>
       </c>
       <c r="F90" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G90" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3548,30 +3569,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" s="3">
-        <v>33.501374537037037</v>
-      </c>
-      <c r="C91" s="3">
-        <v>33.501374537037037</v>
+        <v>53</v>
+      </c>
+      <c r="B91" s="2">
+        <v>33.500579398148147</v>
+      </c>
+      <c r="C91" s="2">
+        <v>36557.500579398147</v>
       </c>
       <c r="D91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E91">
-        <v>143</v>
+        <v>296</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G91" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3580,30 +3601,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>49</v>
-      </c>
-      <c r="B92" s="3">
-        <v>33.501403009259256</v>
-      </c>
-      <c r="C92" s="3">
-        <v>33.501403009259256</v>
+        <v>53</v>
+      </c>
+      <c r="B92" s="2">
+        <v>33.500581018518517</v>
+      </c>
+      <c r="C92" s="2">
+        <v>36557.500581018518</v>
       </c>
       <c r="D92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E92">
-        <v>111</v>
+        <v>291</v>
       </c>
       <c r="F92" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G92" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3612,30 +3633,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>49</v>
-      </c>
-      <c r="B93" s="3">
-        <v>33.501563310185183</v>
-      </c>
-      <c r="C93" s="3">
-        <v>33.501563310185183</v>
+        <v>53</v>
+      </c>
+      <c r="B93" s="2">
+        <v>33.500598958333335</v>
+      </c>
+      <c r="C93" s="2">
+        <v>36557.500598958337</v>
       </c>
       <c r="D93">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3644,30 +3665,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" s="3">
-        <v>33.501584375</v>
-      </c>
-      <c r="C94" s="3">
-        <v>33.501584375</v>
+        <v>53</v>
+      </c>
+      <c r="B94" s="2">
+        <v>33.500632638888888</v>
+      </c>
+      <c r="C94" s="2">
+        <v>36557.50063263889</v>
       </c>
       <c r="D94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="F94" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3676,30 +3697,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B95" s="2">
-        <v>33.500670254629632</v>
-      </c>
-      <c r="C95" s="2">
-        <v>36557.500670254631</v>
+        <v>53</v>
+      </c>
+      <c r="B95" s="3">
+        <v>33.500700694444447</v>
+      </c>
+      <c r="C95" s="3">
+        <v>33.500700694444447</v>
       </c>
       <c r="D95">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E95">
-        <v>275</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G95" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3708,30 +3729,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>50</v>
-      </c>
-      <c r="B96" s="2">
-        <v>33.500678703703706</v>
-      </c>
-      <c r="C96" s="2">
-        <v>36557.500678703705</v>
+        <v>53</v>
+      </c>
+      <c r="B96" s="3">
+        <v>33.500706597222219</v>
+      </c>
+      <c r="C96" s="3">
+        <v>33.500706597222219</v>
       </c>
       <c r="D96">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E96">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G96" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3740,30 +3761,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>50</v>
-      </c>
-      <c r="B97" s="2">
-        <v>33.500691550925929</v>
-      </c>
-      <c r="C97" s="2">
-        <v>36557.500691550929</v>
+        <v>53</v>
+      </c>
+      <c r="B97" s="3">
+        <v>33.500722916666668</v>
+      </c>
+      <c r="C97" s="3">
+        <v>33.500722916666668</v>
       </c>
       <c r="D97">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E97">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3772,30 +3793,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B98" s="3">
-        <v>33.500696180555558</v>
+        <v>33.501169560185183</v>
       </c>
       <c r="C98" s="3">
-        <v>33.500696180555558</v>
+        <v>33.501169560185183</v>
       </c>
       <c r="D98">
         <v>9</v>
       </c>
       <c r="E98">
-        <v>208</v>
+        <v>436</v>
       </c>
       <c r="F98" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G98" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3804,30 +3825,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B99" s="3">
-        <v>33.500704166666665</v>
+        <v>33.501175231481483</v>
       </c>
       <c r="C99" s="3">
-        <v>33.500704166666665</v>
+        <v>33.501175231481483</v>
       </c>
       <c r="D99">
         <v>9</v>
       </c>
       <c r="E99">
-        <v>188</v>
+        <v>427</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3836,30 +3857,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B100" s="3">
-        <v>33.500802662037039</v>
+        <v>33.50121446759259</v>
       </c>
       <c r="C100" s="3">
-        <v>33.500802662037039</v>
+        <v>33.50121446759259</v>
       </c>
       <c r="D100">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>10</v>
+        <v>363</v>
       </c>
       <c r="F100" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G100" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -3868,30 +3889,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B101" s="3">
-        <v>33.500879166666664</v>
+        <v>33.501220601851848</v>
       </c>
       <c r="C101" s="3">
-        <v>33.500879166666664</v>
+        <v>33.501220601851848</v>
       </c>
       <c r="D101">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="F101" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G101" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -3900,30 +3921,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B102" s="3">
-        <v>33.500914120370368</v>
+        <v>33.501374537037037</v>
       </c>
       <c r="C102" s="3">
-        <v>33.500914120370368</v>
+        <v>33.501374537037037</v>
       </c>
       <c r="D102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="F102" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G102" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -3932,30 +3953,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B103" s="3">
-        <v>33.500925578703701</v>
+        <v>33.501403009259256</v>
       </c>
       <c r="C103" s="3">
-        <v>33.500925578703701</v>
+        <v>33.501403009259256</v>
       </c>
       <c r="D103">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>111</v>
       </c>
       <c r="F103" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G103" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -3964,18 +3985,18 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B104" s="3">
-        <v>33.500951620370373</v>
+        <v>33.501563310185183</v>
       </c>
       <c r="C104" s="3">
-        <v>33.500951620370373</v>
+        <v>33.501563310185183</v>
       </c>
       <c r="D104">
         <v>7</v>
@@ -3984,10 +4005,10 @@
         <v>1</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G104" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -3996,18 +4017,18 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B105" s="3">
-        <v>33.500961921296295</v>
+        <v>33.501584375</v>
       </c>
       <c r="C105" s="3">
-        <v>33.500961921296295</v>
+        <v>33.501584375</v>
       </c>
       <c r="D105">
         <v>7</v>
@@ -4016,10 +4037,10 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G105" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4028,30 +4049,30 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>51</v>
-      </c>
-      <c r="B106" s="3">
-        <v>33.501406712962961</v>
-      </c>
-      <c r="C106" s="3">
-        <v>33.501406712962961</v>
+        <v>58</v>
+      </c>
+      <c r="B106" s="2">
+        <v>33.500670254629632</v>
+      </c>
+      <c r="C106" s="2">
+        <v>36557.500670254631</v>
       </c>
       <c r="D106">
         <v>9</v>
       </c>
       <c r="E106">
-        <v>354</v>
+        <v>275</v>
       </c>
       <c r="F106" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4060,30 +4081,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>51</v>
-      </c>
-      <c r="B107" s="3">
-        <v>33.501448958333334</v>
-      </c>
-      <c r="C107" s="3">
-        <v>33.501448958333334</v>
+        <v>58</v>
+      </c>
+      <c r="B107" s="2">
+        <v>33.500678703703706</v>
+      </c>
+      <c r="C107" s="2">
+        <v>36557.500678703705</v>
       </c>
       <c r="D107">
         <v>9</v>
       </c>
       <c r="E107">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4092,30 +4113,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>51</v>
-      </c>
-      <c r="B108" s="3">
-        <v>33.501479976851854</v>
-      </c>
-      <c r="C108" s="3">
-        <v>33.501479976851854</v>
+        <v>58</v>
+      </c>
+      <c r="B108" s="2">
+        <v>33.500691550925929</v>
+      </c>
+      <c r="C108" s="2">
+        <v>36557.500691550929</v>
       </c>
       <c r="D108">
         <v>9</v>
       </c>
       <c r="E108">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="F108" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="G108" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4124,30 +4145,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B109" s="3">
-        <v>33.501579050925926</v>
+        <v>33.500696180555558</v>
       </c>
       <c r="C109" s="3">
-        <v>33.501579050925926</v>
+        <v>33.500696180555558</v>
       </c>
       <c r="D109">
         <v>9</v>
       </c>
       <c r="E109">
-        <v>149</v>
+        <v>208</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G109" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4156,30 +4177,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B110" s="3">
-        <v>33.500720023148148</v>
+        <v>33.500704166666665</v>
       </c>
       <c r="C110" s="3">
-        <v>33.500720023148148</v>
+        <v>33.500704166666665</v>
       </c>
       <c r="D110">
         <v>9</v>
       </c>
       <c r="E110">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G110" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4188,39 +4209,391 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B111" s="3">
-        <v>33.500866550925927</v>
+        <v>33.500802662037039</v>
       </c>
       <c r="C111" s="3">
-        <v>33.500866550925927</v>
+        <v>33.500802662037039</v>
       </c>
       <c r="D111">
         <v>8</v>
       </c>
       <c r="E111">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>27</v>
+      </c>
+      <c r="G111" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="3">
+        <v>33.500879166666664</v>
+      </c>
+      <c r="C112" s="3">
+        <v>33.500879166666664</v>
+      </c>
+      <c r="D112">
+        <v>7</v>
+      </c>
+      <c r="E112">
         <v>1</v>
       </c>
-      <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s">
-        <v>82</v>
-      </c>
-      <c r="H111" t="s">
-        <v>13</v>
-      </c>
-      <c r="I111" t="s">
-        <v>14</v>
-      </c>
-      <c r="J111" t="s">
+      <c r="F112" t="s">
+        <v>27</v>
+      </c>
+      <c r="G112" t="s">
+        <v>75</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B113" s="3">
+        <v>33.500914120370368</v>
+      </c>
+      <c r="C113" s="3">
+        <v>33.500914120370368</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113" t="s">
+        <v>27</v>
+      </c>
+      <c r="G113" t="s">
+        <v>93</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+      <c r="I113" t="s">
+        <v>14</v>
+      </c>
+      <c r="J113" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>58</v>
+      </c>
+      <c r="B114" s="3">
+        <v>33.500925578703701</v>
+      </c>
+      <c r="C114" s="3">
+        <v>33.500925578703701</v>
+      </c>
+      <c r="D114">
+        <v>7</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>27</v>
+      </c>
+      <c r="G114" t="s">
         <v>83</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+      <c r="J114" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>58</v>
+      </c>
+      <c r="B115" s="3">
+        <v>33.500951620370373</v>
+      </c>
+      <c r="C115" s="3">
+        <v>33.500951620370373</v>
+      </c>
+      <c r="D115">
+        <v>7</v>
+      </c>
+      <c r="E115">
+        <v>1</v>
+      </c>
+      <c r="F115" t="s">
+        <v>27</v>
+      </c>
+      <c r="G115" t="s">
+        <v>77</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" t="s">
+        <v>14</v>
+      </c>
+      <c r="J115" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>58</v>
+      </c>
+      <c r="B116" s="3">
+        <v>33.500961921296295</v>
+      </c>
+      <c r="C116" s="3">
+        <v>33.500961921296295</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116">
+        <v>1</v>
+      </c>
+      <c r="F116" t="s">
+        <v>27</v>
+      </c>
+      <c r="G116" t="s">
+        <v>79</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+      <c r="I116" t="s">
+        <v>14</v>
+      </c>
+      <c r="J116" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>59</v>
+      </c>
+      <c r="B117" s="3">
+        <v>33.501406712962961</v>
+      </c>
+      <c r="C117" s="3">
+        <v>33.501406712962961</v>
+      </c>
+      <c r="D117">
+        <v>9</v>
+      </c>
+      <c r="E117">
+        <v>354</v>
+      </c>
+      <c r="F117" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" t="s">
+        <v>63</v>
+      </c>
+      <c r="H117" t="s">
+        <v>13</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+      <c r="J117" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>59</v>
+      </c>
+      <c r="B118" s="3">
+        <v>33.501448958333334</v>
+      </c>
+      <c r="C118" s="3">
+        <v>33.501448958333334</v>
+      </c>
+      <c r="D118">
+        <v>9</v>
+      </c>
+      <c r="E118">
+        <v>299</v>
+      </c>
+      <c r="F118" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" t="s">
+        <v>65</v>
+      </c>
+      <c r="H118" t="s">
+        <v>13</v>
+      </c>
+      <c r="I118" t="s">
+        <v>14</v>
+      </c>
+      <c r="J118" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>59</v>
+      </c>
+      <c r="B119" s="3">
+        <v>33.501479976851854</v>
+      </c>
+      <c r="C119" s="3">
+        <v>33.501479976851854</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119">
+        <v>261</v>
+      </c>
+      <c r="F119" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" t="s">
+        <v>67</v>
+      </c>
+      <c r="H119" t="s">
+        <v>13</v>
+      </c>
+      <c r="I119" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>59</v>
+      </c>
+      <c r="B120" s="3">
+        <v>33.501579050925926</v>
+      </c>
+      <c r="C120" s="3">
+        <v>33.501579050925926</v>
+      </c>
+      <c r="D120">
+        <v>9</v>
+      </c>
+      <c r="E120">
+        <v>149</v>
+      </c>
+      <c r="F120" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>60</v>
+      </c>
+      <c r="B121" s="3">
+        <v>33.500720023148148</v>
+      </c>
+      <c r="C121" s="3">
+        <v>33.500720023148148</v>
+      </c>
+      <c r="D121">
+        <v>9</v>
+      </c>
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121" t="s">
+        <v>27</v>
+      </c>
+      <c r="G121" t="s">
+        <v>71</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+      <c r="I121" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>60</v>
+      </c>
+      <c r="B122" s="3">
+        <v>33.500866550925927</v>
+      </c>
+      <c r="C122" s="3">
+        <v>33.500866550925927</v>
+      </c>
+      <c r="D122">
+        <v>8</v>
+      </c>
+      <c r="E122">
+        <v>1</v>
+      </c>
+      <c r="F122" t="s">
+        <v>27</v>
+      </c>
+      <c r="G122" t="s">
+        <v>90</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/USASwimming/Times For Thomas Martin.xlsx
+++ b/USASwimming/Times For Thomas Martin.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="103">
   <si>
     <t>Event</t>
   </si>
@@ -81,6 +81,12 @@
     <t>11/9/2019</t>
   </si>
   <si>
+    <t>2020 CT OAK Centennial Center Invit</t>
+  </si>
+  <si>
+    <t>1/5/2020</t>
+  </si>
+  <si>
     <t>2019 CT CDOG December 10 &amp; U Quadrath</t>
   </si>
   <si>
@@ -150,6 +156,15 @@
     <t>11/10/2019</t>
   </si>
   <si>
+    <t>1/4/2020</t>
+  </si>
+  <si>
+    <t>2020 CT Wilton Wahoos Winter Qual</t>
+  </si>
+  <si>
+    <t>1/19/2020</t>
+  </si>
+  <si>
     <t>3/3/2019</t>
   </si>
   <si>
@@ -183,7 +198,13 @@
     <t>12/7/2019</t>
   </si>
   <si>
+    <t>1/17/2020</t>
+  </si>
+  <si>
     <t>50 BK</t>
+  </si>
+  <si>
+    <t>1/18/2020</t>
   </si>
   <si>
     <t>1/19/2019</t>
@@ -670,7 +691,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -793,16 +814,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="2">
-        <v>33.500420949074076</v>
+        <v>33.500418981481481</v>
       </c>
       <c r="C4" s="2">
-        <v>36557.500420949073</v>
+        <v>36557.500418981479</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -825,16 +846,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="2">
-        <v>33.500422453703706</v>
+        <v>33.500420949074076</v>
       </c>
       <c r="C5" s="2">
-        <v>36557.500422453704</v>
+        <v>36557.500420949073</v>
       </c>
       <c r="D5">
         <v>9</v>
       </c>
       <c r="E5">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="F5" t="s">
         <v>16</v>
@@ -857,16 +878,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="2">
-        <v>33.500438425925928</v>
+        <v>33.500422453703706</v>
       </c>
       <c r="C6" s="2">
-        <v>36557.500438425923</v>
+        <v>36557.500422453704</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>311</v>
+        <v>379</v>
       </c>
       <c r="F6" t="s">
         <v>16</v>
@@ -889,16 +910,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="2">
-        <v>33.500439351851853</v>
+        <v>33.500438425925928</v>
       </c>
       <c r="C7" s="2">
-        <v>36557.500439351854</v>
+        <v>36557.500438425923</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
@@ -921,31 +942,31 @@
         <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>33.500445023148146</v>
+        <v>33.500439351851853</v>
       </c>
       <c r="C8" s="2">
-        <v>36557.50044502315</v>
+        <v>36557.500439351854</v>
       </c>
       <c r="D8">
         <v>9</v>
       </c>
       <c r="E8">
-        <v>284</v>
+        <v>307</v>
       </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,19 +974,19 @@
         <v>10</v>
       </c>
       <c r="B9" s="2">
-        <v>33.500491550925929</v>
+        <v>33.500445023148146</v>
       </c>
       <c r="C9" s="2">
-        <v>36557.500491550927</v>
+        <v>36557.50044502315</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>111</v>
+        <v>284</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
         <v>30</v>
@@ -985,19 +1006,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>33.500500925925927</v>
+        <v>33.500491550925929</v>
       </c>
       <c r="C10" s="2">
-        <v>36557.500500925926</v>
+        <v>36557.500491550927</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
@@ -1017,19 +1038,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>33.500505324074076</v>
+        <v>33.500500925925927</v>
       </c>
       <c r="C11" s="2">
-        <v>36557.500505324075</v>
+        <v>36557.500500925926</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G11" t="s">
         <v>34</v>
@@ -1049,19 +1070,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>33.500535416666665</v>
+        <v>33.500505324074076</v>
       </c>
       <c r="C12" s="2">
-        <v>36557.500535416664</v>
+        <v>36557.500505324075</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1081,10 +1102,10 @@
         <v>10</v>
       </c>
       <c r="B13" s="2">
-        <v>33.500548379629628</v>
+        <v>33.500535416666665</v>
       </c>
       <c r="C13" s="2">
-        <v>36557.500548379627</v>
+        <v>36557.500535416664</v>
       </c>
       <c r="D13">
         <v>8</v>
@@ -1093,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>38</v>
@@ -1110,26 +1131,26 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>33.500548379629628</v>
+      </c>
+      <c r="C14" s="2">
+        <v>36557.500548379627</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3">
-        <v>33.500910069444444</v>
-      </c>
-      <c r="C14" s="3">
-        <v>33.500910069444444</v>
-      </c>
-      <c r="D14">
-        <v>9</v>
-      </c>
-      <c r="E14">
-        <v>382</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
       <c r="H14" t="s">
         <v>13</v>
       </c>
@@ -1137,30 +1158,30 @@
         <v>14</v>
       </c>
       <c r="J14" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B15" s="3">
-        <v>33.500913425925923</v>
+        <v>33.500910069444444</v>
       </c>
       <c r="C15" s="3">
-        <v>33.500913425925923</v>
+        <v>33.500910069444444</v>
       </c>
       <c r="D15">
         <v>9</v>
       </c>
       <c r="E15">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
         <v>13</v>
@@ -1169,30 +1190,30 @@
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" s="3">
-        <v>33.500964236111109</v>
+        <v>33.500913425925923</v>
       </c>
       <c r="C16" s="3">
-        <v>33.500964236111109</v>
+        <v>33.500913425925923</v>
       </c>
       <c r="D16">
         <v>9</v>
       </c>
       <c r="E16">
-        <v>273</v>
+        <v>375</v>
       </c>
       <c r="F16" t="s">
         <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
         <v>13</v>
@@ -1201,30 +1222,30 @@
         <v>14</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3">
-        <v>33.500995486111108</v>
+        <v>33.50093159722222</v>
       </c>
       <c r="C17" s="3">
-        <v>33.500995486111108</v>
+        <v>33.50093159722222</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>216</v>
+        <v>337</v>
       </c>
       <c r="F17" t="s">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -1238,25 +1259,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B18" s="3">
-        <v>33.501104166666664</v>
+        <v>33.500934143518521</v>
       </c>
       <c r="C18" s="3">
-        <v>33.501104166666664</v>
+        <v>33.500934143518521</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E18">
-        <v>57</v>
+        <v>332</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -1265,31 +1286,31 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" s="3">
-        <v>33.501104976851849</v>
+        <v>33.500964236111109</v>
       </c>
       <c r="C19" s="3">
-        <v>33.501104976851849</v>
+        <v>33.500964236111109</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>56</v>
+        <v>273</v>
       </c>
       <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
         <v>27</v>
       </c>
-      <c r="G19" t="s">
-        <v>36</v>
-      </c>
       <c r="H19" t="s">
         <v>13</v>
       </c>
@@ -1297,30 +1318,30 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B20" s="3">
-        <v>33.501150115740742</v>
+        <v>33.500995486111108</v>
       </c>
       <c r="C20" s="3">
-        <v>33.501150115740742</v>
+        <v>33.500995486111108</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
       <c r="E20">
-        <v>15</v>
+        <v>216</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s">
         <v>13</v>
@@ -1329,30 +1350,30 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B21" s="3">
-        <v>33.501234027777777</v>
+        <v>33.501104166666664</v>
       </c>
       <c r="C21" s="3">
-        <v>33.501234027777777</v>
+        <v>33.501104166666664</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H21" t="s">
         <v>13</v>
@@ -1361,62 +1382,62 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B22" s="3">
-        <v>33.501940740740743</v>
+        <v>33.501104976851849</v>
       </c>
       <c r="C22" s="3">
-        <v>33.501940740740743</v>
+        <v>33.501104976851849</v>
       </c>
       <c r="D22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>389</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
         <v>51</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J22" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B23" s="3">
-        <v>33.501998379629633</v>
+        <v>33.501150115740742</v>
       </c>
       <c r="C23" s="3">
-        <v>33.501998379629633</v>
+        <v>33.501150115740742</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E23">
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -1425,30 +1446,30 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2">
-        <v>33.500460879629628</v>
-      </c>
-      <c r="C24" s="2">
-        <v>36557.50046087963</v>
+        <v>42</v>
+      </c>
+      <c r="B24" s="3">
+        <v>33.501234027777777</v>
+      </c>
+      <c r="C24" s="3">
+        <v>33.501234027777777</v>
       </c>
       <c r="D24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E24">
-        <v>480</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -1457,30 +1478,30 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2">
-        <v>33.500474189814817</v>
-      </c>
-      <c r="C25" s="2">
-        <v>36557.500474189816</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="3">
+        <v>33.501940740740743</v>
+      </c>
+      <c r="C25" s="3">
+        <v>33.501940740740743</v>
       </c>
       <c r="D25">
         <v>9</v>
       </c>
       <c r="E25">
-        <v>425</v>
+        <v>389</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1489,30 +1510,30 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="2">
-        <v>33.500474189814817</v>
-      </c>
-      <c r="C26" s="2">
-        <v>36557.500474189816</v>
+        <v>55</v>
+      </c>
+      <c r="B26" s="3">
+        <v>33.501998379629633</v>
+      </c>
+      <c r="C26" s="3">
+        <v>33.501998379629633</v>
       </c>
       <c r="D26">
         <v>9</v>
       </c>
       <c r="E26">
-        <v>425</v>
+        <v>330</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -1521,30 +1542,30 @@
         <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2">
-        <v>33.500475925925926</v>
-      </c>
-      <c r="C27" s="2">
-        <v>36557.500475925925</v>
+        <v>55</v>
+      </c>
+      <c r="B27" s="3">
+        <v>33.502010416666664</v>
+      </c>
+      <c r="C27" s="3">
+        <v>33.502010416666664</v>
       </c>
       <c r="D27">
         <v>9</v>
       </c>
       <c r="E27">
-        <v>417</v>
+        <v>319</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -1553,30 +1574,30 @@
         <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B28" s="2">
-        <v>33.500487962962964</v>
+        <v>33.500460879629628</v>
       </c>
       <c r="C28" s="2">
-        <v>36557.500487962963</v>
+        <v>36557.50046087963</v>
       </c>
       <c r="D28">
         <v>9</v>
       </c>
       <c r="E28">
-        <v>369</v>
+        <v>480</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -1585,30 +1606,30 @@
         <v>14</v>
       </c>
       <c r="J28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B29" s="2">
-        <v>33.500495486111113</v>
+        <v>33.500474189814817</v>
       </c>
       <c r="C29" s="2">
-        <v>36557.500495486114</v>
+        <v>36557.500474189816</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E29">
-        <v>340</v>
+        <v>425</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -1617,30 +1638,30 @@
         <v>14</v>
       </c>
       <c r="J29" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="B30" s="2">
+        <v>33.500474189814817</v>
       </c>
       <c r="C30" s="2">
-        <v>36557.500502083334</v>
+        <v>36557.500474189816</v>
       </c>
       <c r="D30">
         <v>9</v>
       </c>
       <c r="E30">
-        <v>315</v>
+        <v>425</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G30" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -1649,27 +1670,27 @@
         <v>14</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="B31" s="2">
+        <v>33.500475925925926</v>
       </c>
       <c r="C31" s="2">
-        <v>36557.500517129629</v>
+        <v>36557.500475925925</v>
       </c>
       <c r="D31">
         <v>9</v>
       </c>
       <c r="E31">
-        <v>261</v>
+        <v>417</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G31" t="s">
         <v>17</v>
@@ -1681,30 +1702,30 @@
         <v>14</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B32" s="2">
-        <v>33.50053599537037</v>
+        <v>33.50047824074074</v>
       </c>
       <c r="C32" s="2">
-        <v>36557.500535995372</v>
+        <v>36557.500478240741</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E32">
-        <v>198</v>
+        <v>408</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
         <v>13</v>
@@ -1713,27 +1734,27 @@
         <v>14</v>
       </c>
       <c r="J32" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2">
-        <v>33.500553935185188</v>
+        <v>33.500487962962964</v>
       </c>
       <c r="C33" s="2">
-        <v>36557.500553935184</v>
+        <v>36557.500487962963</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E33">
-        <v>143</v>
+        <v>369</v>
       </c>
       <c r="F33" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G33" t="s">
         <v>30</v>
@@ -1750,25 +1771,25 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2">
-        <v>33.500568287037034</v>
+        <v>33.500494328703702</v>
       </c>
       <c r="C34" s="2">
-        <v>36557.50056828704</v>
+        <v>36557.500494328706</v>
       </c>
       <c r="D34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E34">
-        <v>104</v>
+        <v>345</v>
       </c>
       <c r="F34" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -1777,30 +1798,30 @@
         <v>14</v>
       </c>
       <c r="J34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B35" s="2">
-        <v>33.500572685185183</v>
+        <v>33.500495486111113</v>
       </c>
       <c r="C35" s="2">
-        <v>36557.500572685189</v>
+        <v>36557.500495486114</v>
       </c>
       <c r="D35">
         <v>8</v>
       </c>
       <c r="E35">
-        <v>93</v>
+        <v>340</v>
       </c>
       <c r="F35" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -1809,31 +1830,31 @@
         <v>14</v>
       </c>
       <c r="J35" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="2">
-        <v>33.500585995370372</v>
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>62</v>
       </c>
       <c r="C36" s="2">
-        <v>36557.500585995367</v>
+        <v>36557.500502083334</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E36">
-        <v>61</v>
+        <v>315</v>
       </c>
       <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
         <v>27</v>
       </c>
-      <c r="G36" t="s">
-        <v>32</v>
-      </c>
       <c r="H36" t="s">
         <v>13</v>
       </c>
@@ -1841,30 +1862,30 @@
         <v>14</v>
       </c>
       <c r="J36" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="3">
-        <v>33.501021874999999</v>
-      </c>
-      <c r="C37" s="3">
-        <v>33.501021874999999</v>
+        <v>59</v>
+      </c>
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36557.500517129629</v>
       </c>
       <c r="D37">
         <v>9</v>
       </c>
       <c r="E37">
-        <v>420</v>
+        <v>261</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="H37" t="s">
         <v>13</v>
@@ -1873,30 +1894,30 @@
         <v>14</v>
       </c>
       <c r="J37" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" s="3">
-        <v>33.50107372685185</v>
-      </c>
-      <c r="C38" s="3">
-        <v>33.50107372685185</v>
+        <v>59</v>
+      </c>
+      <c r="B38" s="2">
+        <v>33.50053599537037</v>
+      </c>
+      <c r="C38" s="2">
+        <v>36557.500535995372</v>
       </c>
       <c r="D38">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E38">
-        <v>325</v>
+        <v>198</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="H38" t="s">
         <v>13</v>
@@ -1905,30 +1926,30 @@
         <v>14</v>
       </c>
       <c r="J38" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" s="3">
-        <v>33.501076967592596</v>
-      </c>
-      <c r="C39" s="3">
-        <v>33.501076967592596</v>
+        <v>59</v>
+      </c>
+      <c r="B39" s="2">
+        <v>33.500553935185188</v>
+      </c>
+      <c r="C39" s="2">
+        <v>36557.500553935184</v>
       </c>
       <c r="D39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E39">
-        <v>319</v>
+        <v>143</v>
       </c>
       <c r="F39" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H39" t="s">
         <v>13</v>
@@ -1937,30 +1958,30 @@
         <v>14</v>
       </c>
       <c r="J39" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B40" s="2">
-        <v>33.500588888888892</v>
+        <v>33.500568287037034</v>
       </c>
       <c r="C40" s="2">
-        <v>36557.500588888892</v>
+        <v>36557.50056828704</v>
       </c>
       <c r="D40">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E40">
-        <v>241</v>
+        <v>104</v>
       </c>
       <c r="F40" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H40" t="s">
         <v>13</v>
@@ -1969,30 +1990,30 @@
         <v>14</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2">
-        <v>33.50059097222222</v>
+        <v>33.500572685185183</v>
       </c>
       <c r="C41" s="2">
-        <v>36557.500590972224</v>
+        <v>36557.500572685189</v>
       </c>
       <c r="D41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>235</v>
+        <v>93</v>
       </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H41" t="s">
         <v>13</v>
@@ -2001,30 +2022,30 @@
         <v>14</v>
       </c>
       <c r="J41" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2">
-        <v>33.500594097222219</v>
+        <v>33.500585995370372</v>
       </c>
       <c r="C42" s="2">
-        <v>36557.500594097219</v>
+        <v>36557.500585995367</v>
       </c>
       <c r="D42">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E42">
-        <v>225</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H42" t="s">
         <v>13</v>
@@ -2033,30 +2054,30 @@
         <v>14</v>
       </c>
       <c r="J42" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="2">
-        <v>33.500610879629633</v>
-      </c>
-      <c r="C43" s="2">
-        <v>36557.50061087963</v>
+        <v>64</v>
+      </c>
+      <c r="B43" s="3">
+        <v>33.500991550925924</v>
+      </c>
+      <c r="C43" s="3">
+        <v>33.500991550925924</v>
       </c>
       <c r="D43">
         <v>9</v>
       </c>
       <c r="E43">
-        <v>177</v>
+        <v>479</v>
       </c>
       <c r="F43" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G43" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
         <v>13</v>
@@ -2065,30 +2086,30 @@
         <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" s="2">
-        <v>33.500615856481481</v>
-      </c>
-      <c r="C44" s="2">
-        <v>36557.500615856479</v>
+        <v>64</v>
+      </c>
+      <c r="B44" s="3">
+        <v>33.501021874999999</v>
+      </c>
+      <c r="C44" s="3">
+        <v>33.501021874999999</v>
       </c>
       <c r="D44">
         <v>9</v>
       </c>
       <c r="E44">
-        <v>164</v>
+        <v>420</v>
       </c>
       <c r="F44" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G44" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s">
         <v>13</v>
@@ -2097,30 +2118,30 @@
         <v>14</v>
       </c>
       <c r="J44" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>58</v>
-      </c>
-      <c r="B45" s="2">
-        <v>33.500625925925924</v>
-      </c>
-      <c r="C45" s="2">
-        <v>36557.500625925924</v>
+        <v>64</v>
+      </c>
+      <c r="B45" s="3">
+        <v>33.501023263888889</v>
+      </c>
+      <c r="C45" s="3">
+        <v>33.501023263888889</v>
       </c>
       <c r="D45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E45">
-        <v>138</v>
+        <v>417</v>
       </c>
       <c r="F45" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
         <v>13</v>
@@ -2129,31 +2150,31 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>58</v>
-      </c>
-      <c r="B46" s="2">
-        <v>33.500669907407406</v>
-      </c>
-      <c r="C46" s="2">
-        <v>36557.500669907407</v>
+        <v>64</v>
+      </c>
+      <c r="B46" s="3">
+        <v>33.50107372685185</v>
+      </c>
+      <c r="C46" s="3">
+        <v>33.50107372685185</v>
       </c>
       <c r="D46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E46">
-        <v>42</v>
+        <v>325</v>
       </c>
       <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
         <v>27</v>
       </c>
-      <c r="G46" t="s">
-        <v>47</v>
-      </c>
       <c r="H46" t="s">
         <v>13</v>
       </c>
@@ -2161,30 +2182,30 @@
         <v>14</v>
       </c>
       <c r="J46" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>58</v>
-      </c>
-      <c r="B47" s="2">
-        <v>33.500688078703703</v>
-      </c>
-      <c r="C47" s="2">
-        <v>36557.500688078704</v>
+        <v>64</v>
+      </c>
+      <c r="B47" s="3">
+        <v>33.501076967592596</v>
+      </c>
+      <c r="C47" s="3">
+        <v>33.501076967592596</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E47">
-        <v>15</v>
+        <v>319</v>
       </c>
       <c r="F47" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H47" t="s">
         <v>13</v>
@@ -2193,30 +2214,30 @@
         <v>14</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="3">
-        <v>33.500706944444445</v>
-      </c>
-      <c r="C48" s="3">
-        <v>33.500706944444445</v>
+        <v>65</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33.500566319444445</v>
+      </c>
+      <c r="C48" s="2">
+        <v>36557.500566319446</v>
       </c>
       <c r="D48">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>312</v>
       </c>
       <c r="F48" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
         <v>13</v>
@@ -2225,30 +2246,30 @@
         <v>14</v>
       </c>
       <c r="J48" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="3">
-        <v>33.500760532407405</v>
-      </c>
-      <c r="C49" s="3">
-        <v>33.500760532407405</v>
+        <v>65</v>
+      </c>
+      <c r="B49" s="2">
+        <v>33.500588888888892</v>
+      </c>
+      <c r="C49" s="2">
+        <v>36557.500588888892</v>
       </c>
       <c r="D49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="F49" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H49" t="s">
         <v>13</v>
@@ -2257,30 +2278,30 @@
         <v>14</v>
       </c>
       <c r="J49" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>59</v>
-      </c>
-      <c r="B50" s="3">
-        <v>33.501279861111108</v>
-      </c>
-      <c r="C50" s="3">
-        <v>33.501279861111108</v>
+        <v>65</v>
+      </c>
+      <c r="B50" s="2">
+        <v>33.50059097222222</v>
+      </c>
+      <c r="C50" s="2">
+        <v>36557.500590972224</v>
       </c>
       <c r="D50">
         <v>9</v>
       </c>
       <c r="E50">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
       </c>
       <c r="G50" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="H50" t="s">
         <v>13</v>
@@ -2289,30 +2310,30 @@
         <v>14</v>
       </c>
       <c r="J50" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="3">
-        <v>33.501292129629633</v>
-      </c>
-      <c r="C51" s="3">
-        <v>33.501292129629633</v>
+        <v>65</v>
+      </c>
+      <c r="B51" s="2">
+        <v>33.500594097222219</v>
+      </c>
+      <c r="C51" s="2">
+        <v>36557.500594097219</v>
       </c>
       <c r="D51">
         <v>9</v>
       </c>
       <c r="E51">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
       </c>
       <c r="G51" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H51" t="s">
         <v>13</v>
@@ -2321,31 +2342,31 @@
         <v>14</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="3">
-        <v>33.501327199074076</v>
-      </c>
-      <c r="C52" s="3">
-        <v>33.501327199074076</v>
+        <v>65</v>
+      </c>
+      <c r="B52" s="2">
+        <v>33.500610879629633</v>
+      </c>
+      <c r="C52" s="2">
+        <v>36557.50061087963</v>
       </c>
       <c r="D52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E52">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="F52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
         <v>27</v>
       </c>
-      <c r="G52" t="s">
-        <v>23</v>
-      </c>
       <c r="H52" t="s">
         <v>13</v>
       </c>
@@ -2353,30 +2374,30 @@
         <v>14</v>
       </c>
       <c r="J52" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="3">
-        <v>33.501343981481483</v>
-      </c>
-      <c r="C53" s="3">
-        <v>33.501343981481483</v>
+        <v>65</v>
+      </c>
+      <c r="B53" s="2">
+        <v>33.500615856481481</v>
+      </c>
+      <c r="C53" s="2">
+        <v>36557.500615856479</v>
       </c>
       <c r="D53">
         <v>9</v>
       </c>
       <c r="E53">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H53" t="s">
         <v>13</v>
@@ -2385,30 +2406,30 @@
         <v>14</v>
       </c>
       <c r="J53" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54" s="3">
-        <v>33.501373263888887</v>
-      </c>
-      <c r="C54" s="3">
-        <v>33.501373263888887</v>
+        <v>65</v>
+      </c>
+      <c r="B54" s="2">
+        <v>33.500625925925924</v>
+      </c>
+      <c r="C54" s="2">
+        <v>36557.500625925924</v>
       </c>
       <c r="D54">
         <v>8</v>
       </c>
       <c r="E54">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s">
         <v>13</v>
@@ -2417,30 +2438,30 @@
         <v>14</v>
       </c>
       <c r="J54" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B55" s="2">
-        <v>33.500487962962964</v>
+        <v>33.500669907407406</v>
       </c>
       <c r="C55" s="2">
-        <v>36557.500487962963</v>
+        <v>36557.500669907407</v>
       </c>
       <c r="D55">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E55">
-        <v>291</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s">
         <v>13</v>
@@ -2449,30 +2470,30 @@
         <v>14</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2">
-        <v>33.500504629629631</v>
+        <v>33.500688078703703</v>
       </c>
       <c r="C56" s="2">
-        <v>36557.500504629628</v>
+        <v>36557.500688078704</v>
       </c>
       <c r="D56">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E56">
-        <v>236</v>
+        <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H56" t="s">
         <v>13</v>
@@ -2481,30 +2502,30 @@
         <v>14</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="2">
-        <v>33.500521064814812</v>
-      </c>
-      <c r="C57" s="2">
-        <v>36557.500521064816</v>
+        <v>65</v>
+      </c>
+      <c r="B57" s="3">
+        <v>33.500706944444445</v>
+      </c>
+      <c r="C57" s="3">
+        <v>33.500706944444445</v>
       </c>
       <c r="D57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E57">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H57" t="s">
         <v>13</v>
@@ -2513,18 +2534,18 @@
         <v>14</v>
       </c>
       <c r="J57" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B58" s="3">
-        <v>33.500739004629629</v>
+        <v>33.500760532407405</v>
       </c>
       <c r="C58" s="3">
-        <v>33.500739004629629</v>
+        <v>33.500760532407405</v>
       </c>
       <c r="D58">
         <v>8</v>
@@ -2533,10 +2554,10 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H58" t="s">
         <v>13</v>
@@ -2545,62 +2566,62 @@
         <v>14</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="3">
+        <v>33.501252430555553</v>
+      </c>
+      <c r="C59" s="3">
+        <v>33.501252430555553</v>
+      </c>
+      <c r="D59">
+        <v>9</v>
+      </c>
+      <c r="E59">
+        <v>304</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" t="s">
         <v>60</v>
-      </c>
-      <c r="B59" s="3">
-        <v>33.500833796296298</v>
-      </c>
-      <c r="C59" s="3">
-        <v>33.500833796296298</v>
-      </c>
-      <c r="D59">
-        <v>8</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59" t="s">
-        <v>27</v>
-      </c>
-      <c r="G59" t="s">
-        <v>38</v>
-      </c>
-      <c r="H59" t="s">
-        <v>13</v>
-      </c>
-      <c r="I59" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60" s="3">
-        <v>33.501027430555553</v>
+        <v>33.501279861111108</v>
       </c>
       <c r="C60" s="3">
-        <v>33.501027430555553</v>
+        <v>33.501279861111108</v>
       </c>
       <c r="D60">
         <v>9</v>
       </c>
       <c r="E60">
-        <v>394</v>
+        <v>265</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G60" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="H60" t="s">
         <v>13</v>
@@ -2609,30 +2630,30 @@
         <v>14</v>
       </c>
       <c r="J60" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61" s="3">
-        <v>33.501135069444445</v>
+        <v>33.501292129629633</v>
       </c>
       <c r="C61" s="3">
-        <v>33.501135069444445</v>
+        <v>33.501292129629633</v>
       </c>
       <c r="D61">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E61">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="F61" t="s">
         <v>16</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H61" t="s">
         <v>13</v>
@@ -2641,30 +2662,30 @@
         <v>14</v>
       </c>
       <c r="J61" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B62" s="3">
-        <v>33.501179513888886</v>
+        <v>33.501308101851855</v>
       </c>
       <c r="C62" s="3">
-        <v>33.501179513888886</v>
+        <v>33.501308101851855</v>
       </c>
       <c r="D62">
         <v>9</v>
       </c>
       <c r="E62">
-        <v>142</v>
+        <v>226</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
         <v>13</v>
@@ -2673,30 +2694,30 @@
         <v>14</v>
       </c>
       <c r="J62" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B63" s="3">
-        <v>33.50127199074074</v>
+        <v>33.501327199074076</v>
       </c>
       <c r="C63" s="3">
-        <v>33.50127199074074</v>
+        <v>33.501327199074076</v>
       </c>
       <c r="D63">
         <v>8</v>
       </c>
       <c r="E63">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="F63" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="H63" t="s">
         <v>13</v>
@@ -2705,27 +2726,27 @@
         <v>14</v>
       </c>
       <c r="J63" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B64" s="3">
-        <v>33.501300578703706</v>
+        <v>33.501343981481483</v>
       </c>
       <c r="C64" s="3">
-        <v>33.501300578703706</v>
+        <v>33.501343981481483</v>
       </c>
       <c r="D64">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E64">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
         <v>30</v>
@@ -2742,25 +2763,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B65" s="3">
-        <v>33.50133113425926</v>
+        <v>33.501373263888887</v>
       </c>
       <c r="C65" s="3">
-        <v>33.50133113425926</v>
+        <v>33.501373263888887</v>
       </c>
       <c r="D65">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>7</v>
+        <v>143</v>
       </c>
       <c r="F65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="H65" t="s">
         <v>13</v>
@@ -2769,30 +2790,30 @@
         <v>14</v>
       </c>
       <c r="J65" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>62</v>
-      </c>
-      <c r="B66" s="3">
-        <v>33.502477777777777</v>
-      </c>
-      <c r="C66" s="3">
-        <v>33.502477777777777</v>
+        <v>67</v>
+      </c>
+      <c r="B66" s="2">
+        <v>33.500487962962964</v>
+      </c>
+      <c r="C66" s="2">
+        <v>36557.500487962963</v>
       </c>
       <c r="D66">
         <v>9</v>
       </c>
       <c r="E66">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="F66" t="s">
         <v>16</v>
       </c>
       <c r="G66" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H66" t="s">
         <v>13</v>
@@ -2801,30 +2822,30 @@
         <v>14</v>
       </c>
       <c r="J66" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2">
-        <v>33.500476504629631</v>
+        <v>33.500504629629631</v>
       </c>
       <c r="C67" s="2">
-        <v>36557.500476504632</v>
+        <v>36557.500504629628</v>
       </c>
       <c r="D67">
         <v>9</v>
       </c>
       <c r="E67">
-        <v>404</v>
+        <v>236</v>
       </c>
       <c r="F67" t="s">
         <v>16</v>
       </c>
       <c r="G67" t="s">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="H67" t="s">
         <v>13</v>
@@ -2833,30 +2854,30 @@
         <v>14</v>
       </c>
       <c r="J67" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="B68" s="2">
-        <v>33.500476620370371</v>
+        <v>33.500521064814812</v>
       </c>
       <c r="C68" s="2">
-        <v>36557.500476620371</v>
+        <v>36557.500521064816</v>
       </c>
       <c r="D68">
         <v>9</v>
       </c>
       <c r="E68">
-        <v>404</v>
+        <v>186</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
       <c r="G68" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="H68" t="s">
         <v>13</v>
@@ -2865,30 +2886,30 @@
         <v>14</v>
       </c>
       <c r="J68" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B69" s="2">
-        <v>33.500490624999998</v>
-      </c>
-      <c r="C69" s="2">
-        <v>36557.500490625003</v>
+        <v>67</v>
+      </c>
+      <c r="B69" s="3">
+        <v>33.500739004629629</v>
+      </c>
+      <c r="C69" s="3">
+        <v>33.500739004629629</v>
       </c>
       <c r="D69">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69">
-        <v>351</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G69" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
         <v>13</v>
@@ -2897,30 +2918,30 @@
         <v>14</v>
       </c>
       <c r="J69" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B70" s="2">
-        <v>33.500496990740743</v>
-      </c>
-      <c r="C70" s="2">
-        <v>36557.500496990739</v>
+        <v>67</v>
+      </c>
+      <c r="B70" s="3">
+        <v>33.500833796296298</v>
+      </c>
+      <c r="C70" s="3">
+        <v>33.500833796296298</v>
       </c>
       <c r="D70">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E70">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s">
         <v>13</v>
@@ -2929,30 +2950,30 @@
         <v>14</v>
       </c>
       <c r="J70" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>10</v>
-      </c>
-      <c r="B71" s="2">
-        <v>33.500504282407405</v>
-      </c>
-      <c r="C71" s="2">
-        <v>36557.500504282405</v>
+        <v>68</v>
+      </c>
+      <c r="B71" s="3">
+        <v>33.501027430555553</v>
+      </c>
+      <c r="C71" s="3">
+        <v>33.501027430555553</v>
       </c>
       <c r="D71">
         <v>9</v>
       </c>
       <c r="E71">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="F71" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G71" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="H71" t="s">
         <v>13</v>
@@ -2961,30 +2982,30 @@
         <v>14</v>
       </c>
       <c r="J71" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B72" s="2">
-        <v>33.500601388888889</v>
-      </c>
-      <c r="C72" s="2">
-        <v>36557.500601388892</v>
+        <v>68</v>
+      </c>
+      <c r="B72" s="3">
+        <v>33.501068402777776</v>
+      </c>
+      <c r="C72" s="3">
+        <v>33.501068402777776</v>
       </c>
       <c r="D72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E72">
-        <v>14</v>
+        <v>316</v>
       </c>
       <c r="F72" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G72" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
         <v>13</v>
@@ -2993,30 +3014,30 @@
         <v>14</v>
       </c>
       <c r="J72" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B73" s="2">
-        <v>33.500632638888888</v>
-      </c>
-      <c r="C73" s="2">
-        <v>36557.50063263889</v>
+        <v>68</v>
+      </c>
+      <c r="B73" s="3">
+        <v>33.501078819444444</v>
+      </c>
+      <c r="C73" s="3">
+        <v>33.501078819444444</v>
       </c>
       <c r="D73">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>297</v>
       </c>
       <c r="F73" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G73" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
         <v>13</v>
@@ -3025,30 +3046,30 @@
         <v>14</v>
       </c>
       <c r="J73" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B74" s="2">
-        <v>33.500642245370372</v>
-      </c>
-      <c r="C74" s="2">
-        <v>36557.500642245373</v>
+        <v>68</v>
+      </c>
+      <c r="B74" s="3">
+        <v>33.501135069444445</v>
+      </c>
+      <c r="C74" s="3">
+        <v>33.501135069444445</v>
       </c>
       <c r="D74">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="F74" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G74" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="H74" t="s">
         <v>13</v>
@@ -3057,30 +3078,30 @@
         <v>14</v>
       </c>
       <c r="J74" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>10</v>
-      </c>
-      <c r="B75" s="2">
-        <v>33.500650925925925</v>
-      </c>
-      <c r="C75" s="2">
-        <v>36557.500650925926</v>
+        <v>68</v>
+      </c>
+      <c r="B75" s="3">
+        <v>33.501179513888886</v>
+      </c>
+      <c r="C75" s="3">
+        <v>33.501179513888886</v>
       </c>
       <c r="D75">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E75">
-        <v>1</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="H75" t="s">
         <v>13</v>
@@ -3089,30 +3110,30 @@
         <v>14</v>
       </c>
       <c r="J75" t="s">
-        <v>80</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>10</v>
-      </c>
-      <c r="B76" s="2">
-        <v>33.500666550925928</v>
-      </c>
-      <c r="C76" s="2">
-        <v>36557.500666550928</v>
+        <v>68</v>
+      </c>
+      <c r="B76" s="3">
+        <v>33.50127199074074</v>
+      </c>
+      <c r="C76" s="3">
+        <v>33.50127199074074</v>
       </c>
       <c r="D76">
         <v>8</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="H76" t="s">
         <v>13</v>
@@ -3121,30 +3142,30 @@
         <v>14</v>
       </c>
       <c r="J76" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="2">
-        <v>33.500687152777779</v>
-      </c>
-      <c r="C77" s="2">
-        <v>36557.50068715278</v>
+        <v>68</v>
+      </c>
+      <c r="B77" s="3">
+        <v>33.501300578703706</v>
+      </c>
+      <c r="C77" s="3">
+        <v>33.501300578703706</v>
       </c>
       <c r="D77">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
         <v>13</v>
@@ -3153,30 +3174,30 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B78" s="3">
-        <v>33.501037731481482</v>
+        <v>33.50133113425926</v>
       </c>
       <c r="C78" s="3">
-        <v>33.501037731481482</v>
+        <v>33.50133113425926</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E78">
-        <v>375</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="H78" t="s">
         <v>13</v>
@@ -3185,30 +3206,30 @@
         <v>14</v>
       </c>
       <c r="J78" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B79" s="3">
-        <v>33.501060763888887</v>
+        <v>33.502301736111114</v>
       </c>
       <c r="C79" s="3">
-        <v>33.501060763888887</v>
+        <v>33.502301736111114</v>
       </c>
       <c r="D79">
         <v>9</v>
       </c>
       <c r="E79">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="F79" t="s">
         <v>16</v>
       </c>
       <c r="G79" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
         <v>13</v>
@@ -3217,30 +3238,30 @@
         <v>14</v>
       </c>
       <c r="J79" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="B80" s="3">
-        <v>33.501065162037037</v>
+        <v>33.502477777777777</v>
       </c>
       <c r="C80" s="3">
-        <v>33.501065162037037</v>
+        <v>33.502477777777777</v>
       </c>
       <c r="D80">
         <v>9</v>
       </c>
       <c r="E80">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="F80" t="s">
         <v>16</v>
       </c>
       <c r="G80" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="H80" t="s">
         <v>13</v>
@@ -3249,30 +3270,30 @@
         <v>14</v>
       </c>
       <c r="J80" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>40</v>
-      </c>
-      <c r="B81" s="3">
-        <v>33.501113541666669</v>
-      </c>
-      <c r="C81" s="3">
-        <v>33.501113541666669</v>
+        <v>10</v>
+      </c>
+      <c r="B81" s="2">
+        <v>33.500476504629631</v>
+      </c>
+      <c r="C81" s="2">
+        <v>36557.500476504632</v>
       </c>
       <c r="D81">
         <v>9</v>
       </c>
       <c r="E81">
-        <v>244</v>
+        <v>404</v>
       </c>
       <c r="F81" t="s">
         <v>16</v>
       </c>
       <c r="G81" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H81" t="s">
         <v>13</v>
@@ -3281,30 +3302,30 @@
         <v>14</v>
       </c>
       <c r="J81" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>40</v>
-      </c>
-      <c r="B82" s="3">
-        <v>33.501119791666667</v>
-      </c>
-      <c r="C82" s="3">
-        <v>33.501119791666667</v>
+        <v>10</v>
+      </c>
+      <c r="B82" s="2">
+        <v>33.500476620370371</v>
+      </c>
+      <c r="C82" s="2">
+        <v>36557.500476620371</v>
       </c>
       <c r="D82">
         <v>9</v>
       </c>
       <c r="E82">
-        <v>234</v>
+        <v>404</v>
       </c>
       <c r="F82" t="s">
         <v>16</v>
       </c>
       <c r="G82" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H82" t="s">
         <v>13</v>
@@ -3313,30 +3334,30 @@
         <v>14</v>
       </c>
       <c r="J82" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>40</v>
-      </c>
-      <c r="B83" s="3">
-        <v>33.501152314814817</v>
-      </c>
-      <c r="C83" s="3">
-        <v>33.501152314814817</v>
+        <v>10</v>
+      </c>
+      <c r="B83" s="2">
+        <v>33.500490624999998</v>
+      </c>
+      <c r="C83" s="2">
+        <v>36557.500490625003</v>
       </c>
       <c r="D83">
         <v>9</v>
       </c>
       <c r="E83">
-        <v>184</v>
+        <v>351</v>
       </c>
       <c r="F83" t="s">
         <v>16</v>
       </c>
       <c r="G83" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H83" t="s">
         <v>13</v>
@@ -3345,30 +3366,30 @@
         <v>14</v>
       </c>
       <c r="J83" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>40</v>
-      </c>
-      <c r="B84" s="3">
-        <v>33.501317824074071</v>
-      </c>
-      <c r="C84" s="3">
-        <v>33.501317824074071</v>
+        <v>10</v>
+      </c>
+      <c r="B84" s="2">
+        <v>33.500496990740743</v>
+      </c>
+      <c r="C84" s="2">
+        <v>36557.500496990739</v>
       </c>
       <c r="D84">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E84">
-        <v>8</v>
+        <v>327</v>
       </c>
       <c r="F84" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G84" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H84" t="s">
         <v>13</v>
@@ -3377,30 +3398,30 @@
         <v>14</v>
       </c>
       <c r="J84" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>40</v>
-      </c>
-      <c r="B85" s="3">
-        <v>33.501464699074077</v>
-      </c>
-      <c r="C85" s="3">
-        <v>33.501464699074077</v>
+        <v>10</v>
+      </c>
+      <c r="B85" s="2">
+        <v>33.500504282407405</v>
+      </c>
+      <c r="C85" s="2">
+        <v>36557.500504282405</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="F85" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s">
         <v>13</v>
@@ -3409,30 +3430,30 @@
         <v>14</v>
       </c>
       <c r="J85" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>40</v>
-      </c>
-      <c r="B86" s="3">
-        <v>33.501576273148146</v>
-      </c>
-      <c r="C86" s="3">
-        <v>33.501576273148146</v>
+        <v>10</v>
+      </c>
+      <c r="B86" s="2">
+        <v>33.500601388888889</v>
+      </c>
+      <c r="C86" s="2">
+        <v>36557.500601388892</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F86" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H86" t="s">
         <v>13</v>
@@ -3441,30 +3462,30 @@
         <v>14</v>
       </c>
       <c r="J86" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="3">
-        <v>33.502427662037036</v>
-      </c>
-      <c r="C87" s="3">
-        <v>33.502427662037036</v>
+        <v>10</v>
+      </c>
+      <c r="B87" s="2">
+        <v>33.500632638888888</v>
+      </c>
+      <c r="C87" s="2">
+        <v>36557.50063263889</v>
       </c>
       <c r="D87">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E87">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s">
         <v>13</v>
@@ -3473,30 +3494,30 @@
         <v>14</v>
       </c>
       <c r="J87" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B88" s="2">
-        <v>33.500551620370373</v>
+        <v>33.500642245370372</v>
       </c>
       <c r="C88" s="2">
-        <v>36557.500551620367</v>
+        <v>36557.500642245373</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E88">
-        <v>389</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G88" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s">
         <v>13</v>
@@ -3510,25 +3531,25 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B89" s="2">
-        <v>33.500564814814815</v>
+        <v>33.500650925925925</v>
       </c>
       <c r="C89" s="2">
-        <v>36557.500564814814</v>
+        <v>36557.500650925926</v>
       </c>
       <c r="D89">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E89">
-        <v>344</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s">
         <v>13</v>
@@ -3537,30 +3558,30 @@
         <v>14</v>
       </c>
       <c r="J89" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B90" s="2">
-        <v>33.500579398148147</v>
+        <v>33.500666550925928</v>
       </c>
       <c r="C90" s="2">
-        <v>36557.500579398147</v>
+        <v>36557.500666550928</v>
       </c>
       <c r="D90">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E90">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s">
         <v>13</v>
@@ -3569,30 +3590,30 @@
         <v>14</v>
       </c>
       <c r="J90" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B91" s="2">
-        <v>33.500579398148147</v>
+        <v>33.500687152777779</v>
       </c>
       <c r="C91" s="2">
-        <v>36557.500579398147</v>
+        <v>36557.50068715278</v>
       </c>
       <c r="D91">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E91">
-        <v>296</v>
+        <v>1</v>
       </c>
       <c r="F91" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="H91" t="s">
         <v>13</v>
@@ -3601,30 +3622,30 @@
         <v>14</v>
       </c>
       <c r="J91" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>53</v>
-      </c>
-      <c r="B92" s="2">
-        <v>33.500581018518517</v>
-      </c>
-      <c r="C92" s="2">
-        <v>36557.500581018518</v>
+        <v>42</v>
+      </c>
+      <c r="B92" s="3">
+        <v>33.501037731481482</v>
+      </c>
+      <c r="C92" s="3">
+        <v>33.501037731481482</v>
       </c>
       <c r="D92">
         <v>9</v>
       </c>
       <c r="E92">
-        <v>291</v>
+        <v>375</v>
       </c>
       <c r="F92" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H92" t="s">
         <v>13</v>
@@ -3633,30 +3654,30 @@
         <v>14</v>
       </c>
       <c r="J92" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>53</v>
-      </c>
-      <c r="B93" s="2">
-        <v>33.500598958333335</v>
-      </c>
-      <c r="C93" s="2">
-        <v>36557.500598958337</v>
+        <v>42</v>
+      </c>
+      <c r="B93" s="3">
+        <v>33.501060763888887</v>
+      </c>
+      <c r="C93" s="3">
+        <v>33.501060763888887</v>
       </c>
       <c r="D93">
         <v>9</v>
       </c>
       <c r="E93">
-        <v>236</v>
+        <v>333</v>
       </c>
       <c r="F93" t="s">
         <v>16</v>
       </c>
       <c r="G93" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="H93" t="s">
         <v>13</v>
@@ -3665,30 +3686,30 @@
         <v>14</v>
       </c>
       <c r="J93" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>53</v>
-      </c>
-      <c r="B94" s="2">
-        <v>33.500632638888888</v>
-      </c>
-      <c r="C94" s="2">
-        <v>36557.50063263889</v>
+        <v>42</v>
+      </c>
+      <c r="B94" s="3">
+        <v>33.501065162037037</v>
+      </c>
+      <c r="C94" s="3">
+        <v>33.501065162037037</v>
       </c>
       <c r="D94">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E94">
-        <v>143</v>
+        <v>326</v>
       </c>
       <c r="F94" t="s">
         <v>16</v>
       </c>
       <c r="G94" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H94" t="s">
         <v>13</v>
@@ -3697,30 +3718,30 @@
         <v>14</v>
       </c>
       <c r="J94" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B95" s="3">
-        <v>33.500700694444447</v>
+        <v>33.501113541666669</v>
       </c>
       <c r="C95" s="3">
-        <v>33.500700694444447</v>
+        <v>33.501113541666669</v>
       </c>
       <c r="D95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E95">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="F95" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G95" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H95" t="s">
         <v>13</v>
@@ -3729,30 +3750,30 @@
         <v>14</v>
       </c>
       <c r="J95" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B96" s="3">
-        <v>33.500706597222219</v>
+        <v>33.501119791666667</v>
       </c>
       <c r="C96" s="3">
-        <v>33.500706597222219</v>
+        <v>33.501119791666667</v>
       </c>
       <c r="D96">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="F96" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H96" t="s">
         <v>13</v>
@@ -3761,30 +3782,30 @@
         <v>14</v>
       </c>
       <c r="J96" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B97" s="3">
-        <v>33.500722916666668</v>
+        <v>33.501152314814817</v>
       </c>
       <c r="C97" s="3">
-        <v>33.500722916666668</v>
+        <v>33.501152314814817</v>
       </c>
       <c r="D97">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="F97" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G97" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H97" t="s">
         <v>13</v>
@@ -3793,30 +3814,30 @@
         <v>14</v>
       </c>
       <c r="J97" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B98" s="3">
-        <v>33.501169560185183</v>
+        <v>33.501317824074071</v>
       </c>
       <c r="C98" s="3">
-        <v>33.501169560185183</v>
+        <v>33.501317824074071</v>
       </c>
       <c r="D98">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>436</v>
+        <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="H98" t="s">
         <v>13</v>
@@ -3825,30 +3846,30 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B99" s="3">
-        <v>33.501175231481483</v>
+        <v>33.501464699074077</v>
       </c>
       <c r="C99" s="3">
-        <v>33.501175231481483</v>
+        <v>33.501464699074077</v>
       </c>
       <c r="D99">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E99">
-        <v>427</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s">
         <v>13</v>
@@ -3857,30 +3878,30 @@
         <v>14</v>
       </c>
       <c r="J99" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B100" s="3">
-        <v>33.50121446759259</v>
+        <v>33.501576273148146</v>
       </c>
       <c r="C100" s="3">
-        <v>33.50121446759259</v>
+        <v>33.501576273148146</v>
       </c>
       <c r="D100">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E100">
-        <v>363</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G100" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="H100" t="s">
         <v>13</v>
@@ -3889,30 +3910,30 @@
         <v>14</v>
       </c>
       <c r="J100" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B101" s="3">
-        <v>33.501220601851848</v>
+        <v>33.502427662037036</v>
       </c>
       <c r="C101" s="3">
-        <v>33.501220601851848</v>
+        <v>33.502427662037036</v>
       </c>
       <c r="D101">
         <v>9</v>
       </c>
       <c r="E101">
-        <v>354</v>
+        <v>207</v>
       </c>
       <c r="F101" t="s">
         <v>16</v>
       </c>
       <c r="G101" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s">
         <v>13</v>
@@ -3921,30 +3942,30 @@
         <v>14</v>
       </c>
       <c r="J101" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" s="3">
-        <v>33.501374537037037</v>
-      </c>
-      <c r="C102" s="3">
-        <v>33.501374537037037</v>
+        <v>59</v>
+      </c>
+      <c r="B102" s="2">
+        <v>33.500551620370373</v>
+      </c>
+      <c r="C102" s="2">
+        <v>36557.500551620367</v>
       </c>
       <c r="D102">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E102">
-        <v>143</v>
+        <v>389</v>
       </c>
       <c r="F102" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G102" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="H102" t="s">
         <v>13</v>
@@ -3953,30 +3974,30 @@
         <v>14</v>
       </c>
       <c r="J102" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>57</v>
-      </c>
-      <c r="B103" s="3">
-        <v>33.501403009259256</v>
-      </c>
-      <c r="C103" s="3">
-        <v>33.501403009259256</v>
+        <v>59</v>
+      </c>
+      <c r="B103" s="2">
+        <v>33.500564814814815</v>
+      </c>
+      <c r="C103" s="2">
+        <v>36557.500564814814</v>
       </c>
       <c r="D103">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E103">
-        <v>111</v>
+        <v>344</v>
       </c>
       <c r="F103" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G103" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H103" t="s">
         <v>13</v>
@@ -3985,30 +4006,30 @@
         <v>14</v>
       </c>
       <c r="J103" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>57</v>
-      </c>
-      <c r="B104" s="3">
-        <v>33.501563310185183</v>
-      </c>
-      <c r="C104" s="3">
-        <v>33.501563310185183</v>
+        <v>59</v>
+      </c>
+      <c r="B104" s="2">
+        <v>33.500579398148147</v>
+      </c>
+      <c r="C104" s="2">
+        <v>36557.500579398147</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="F104" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G104" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="H104" t="s">
         <v>13</v>
@@ -4017,30 +4038,30 @@
         <v>14</v>
       </c>
       <c r="J104" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>57</v>
-      </c>
-      <c r="B105" s="3">
-        <v>33.501584375</v>
-      </c>
-      <c r="C105" s="3">
-        <v>33.501584375</v>
+        <v>59</v>
+      </c>
+      <c r="B105" s="2">
+        <v>33.500579398148147</v>
+      </c>
+      <c r="C105" s="2">
+        <v>36557.500579398147</v>
       </c>
       <c r="D105">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>296</v>
       </c>
       <c r="F105" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G105" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="H105" t="s">
         <v>13</v>
@@ -4049,30 +4070,30 @@
         <v>14</v>
       </c>
       <c r="J105" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B106" s="2">
-        <v>33.500670254629632</v>
+        <v>33.500581018518517</v>
       </c>
       <c r="C106" s="2">
-        <v>36557.500670254631</v>
+        <v>36557.500581018518</v>
       </c>
       <c r="D106">
         <v>9</v>
       </c>
       <c r="E106">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="F106" t="s">
         <v>16</v>
       </c>
       <c r="G106" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="H106" t="s">
         <v>13</v>
@@ -4081,30 +4102,30 @@
         <v>14</v>
       </c>
       <c r="J106" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B107" s="2">
-        <v>33.500678703703706</v>
+        <v>33.500598958333335</v>
       </c>
       <c r="C107" s="2">
-        <v>36557.500678703705</v>
+        <v>36557.500598958337</v>
       </c>
       <c r="D107">
         <v>9</v>
       </c>
       <c r="E107">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="F107" t="s">
         <v>16</v>
       </c>
       <c r="G107" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="H107" t="s">
         <v>13</v>
@@ -4113,30 +4134,30 @@
         <v>14</v>
       </c>
       <c r="J107" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B108" s="2">
-        <v>33.500691550925929</v>
+        <v>33.500632638888888</v>
       </c>
       <c r="C108" s="2">
-        <v>36557.500691550929</v>
+        <v>36557.50063263889</v>
       </c>
       <c r="D108">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="F108" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G108" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="H108" t="s">
         <v>13</v>
@@ -4145,30 +4166,30 @@
         <v>14</v>
       </c>
       <c r="J108" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B109" s="3">
-        <v>33.500696180555558</v>
+        <v>33.500700694444447</v>
       </c>
       <c r="C109" s="3">
-        <v>33.500696180555558</v>
+        <v>33.500700694444447</v>
       </c>
       <c r="D109">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E109">
-        <v>208</v>
+        <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H109" t="s">
         <v>13</v>
@@ -4177,30 +4198,30 @@
         <v>14</v>
       </c>
       <c r="J109" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B110" s="3">
-        <v>33.500704166666665</v>
+        <v>33.500706597222219</v>
       </c>
       <c r="C110" s="3">
-        <v>33.500704166666665</v>
+        <v>33.500706597222219</v>
       </c>
       <c r="D110">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E110">
-        <v>188</v>
+        <v>6</v>
       </c>
       <c r="F110" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H110" t="s">
         <v>13</v>
@@ -4209,30 +4230,30 @@
         <v>14</v>
       </c>
       <c r="J110" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B111" s="3">
-        <v>33.500802662037039</v>
+        <v>33.500722916666668</v>
       </c>
       <c r="C111" s="3">
-        <v>33.500802662037039</v>
+        <v>33.500722916666668</v>
       </c>
       <c r="D111">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F111" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H111" t="s">
         <v>13</v>
@@ -4241,62 +4262,62 @@
         <v>14</v>
       </c>
       <c r="J111" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B112" s="3">
-        <v>33.500879166666664</v>
+        <v>33.501169560185183</v>
       </c>
       <c r="C112" s="3">
-        <v>33.500879166666664</v>
+        <v>33.501169560185183</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>436</v>
       </c>
       <c r="F112" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G112" t="s">
+        <v>74</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+      <c r="J112" t="s">
         <v>75</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-      <c r="I112" t="s">
-        <v>14</v>
-      </c>
-      <c r="J112" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B113" s="3">
-        <v>33.500914120370368</v>
+        <v>33.501175231481483</v>
       </c>
       <c r="C113" s="3">
-        <v>33.500914120370368</v>
+        <v>33.501175231481483</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>427</v>
       </c>
       <c r="F113" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="G113" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="H113" t="s">
         <v>13</v>
@@ -4305,30 +4326,30 @@
         <v>14</v>
       </c>
       <c r="J113" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B114" s="3">
-        <v>33.500925578703701</v>
+        <v>33.50121446759259</v>
       </c>
       <c r="C114" s="3">
-        <v>33.500925578703701</v>
+        <v>33.50121446759259</v>
       </c>
       <c r="D114">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E114">
-        <v>1</v>
+        <v>363</v>
       </c>
       <c r="F114" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G114" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="H114" t="s">
         <v>13</v>
@@ -4337,30 +4358,30 @@
         <v>14</v>
       </c>
       <c r="J114" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B115" s="3">
-        <v>33.500951620370373</v>
+        <v>33.501220601851848</v>
       </c>
       <c r="C115" s="3">
-        <v>33.500951620370373</v>
+        <v>33.501220601851848</v>
       </c>
       <c r="D115">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>354</v>
       </c>
       <c r="F115" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H115" t="s">
         <v>13</v>
@@ -4369,30 +4390,30 @@
         <v>14</v>
       </c>
       <c r="J115" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B116" s="3">
-        <v>33.500961921296295</v>
+        <v>33.501374537037037</v>
       </c>
       <c r="C116" s="3">
-        <v>33.500961921296295</v>
+        <v>33.501374537037037</v>
       </c>
       <c r="D116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>143</v>
       </c>
       <c r="F116" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H116" t="s">
         <v>13</v>
@@ -4401,30 +4422,30 @@
         <v>14</v>
       </c>
       <c r="J116" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B117" s="3">
-        <v>33.501406712962961</v>
+        <v>33.501403009259256</v>
       </c>
       <c r="C117" s="3">
-        <v>33.501406712962961</v>
+        <v>33.501403009259256</v>
       </c>
       <c r="D117">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E117">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="F117" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G117" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H117" t="s">
         <v>13</v>
@@ -4433,30 +4454,30 @@
         <v>14</v>
       </c>
       <c r="J117" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B118" s="3">
-        <v>33.501448958333334</v>
+        <v>33.501563310185183</v>
       </c>
       <c r="C118" s="3">
-        <v>33.501448958333334</v>
+        <v>33.501563310185183</v>
       </c>
       <c r="D118">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E118">
-        <v>299</v>
+        <v>1</v>
       </c>
       <c r="F118" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="H118" t="s">
         <v>13</v>
@@ -4465,30 +4486,30 @@
         <v>14</v>
       </c>
       <c r="J118" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B119" s="3">
-        <v>33.501479976851854</v>
+        <v>33.501584375</v>
       </c>
       <c r="C119" s="3">
-        <v>33.501479976851854</v>
+        <v>33.501584375</v>
       </c>
       <c r="D119">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E119">
-        <v>261</v>
+        <v>1</v>
       </c>
       <c r="F119" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="H119" t="s">
         <v>13</v>
@@ -4497,30 +4518,30 @@
         <v>14</v>
       </c>
       <c r="J119" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>59</v>
-      </c>
-      <c r="B120" s="3">
-        <v>33.501579050925926</v>
-      </c>
-      <c r="C120" s="3">
-        <v>33.501579050925926</v>
+        <v>65</v>
+      </c>
+      <c r="B120" s="2">
+        <v>33.500670254629632</v>
+      </c>
+      <c r="C120" s="2">
+        <v>36557.500670254631</v>
       </c>
       <c r="D120">
         <v>9</v>
       </c>
       <c r="E120">
-        <v>149</v>
+        <v>275</v>
       </c>
       <c r="F120" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G120" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H120" t="s">
         <v>13</v>
@@ -4529,30 +4550,30 @@
         <v>14</v>
       </c>
       <c r="J120" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>60</v>
-      </c>
-      <c r="B121" s="3">
-        <v>33.500720023148148</v>
-      </c>
-      <c r="C121" s="3">
-        <v>33.500720023148148</v>
+        <v>65</v>
+      </c>
+      <c r="B121" s="2">
+        <v>33.500678703703706</v>
+      </c>
+      <c r="C121" s="2">
+        <v>36557.500678703705</v>
       </c>
       <c r="D121">
         <v>9</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="F121" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="G121" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H121" t="s">
         <v>13</v>
@@ -4561,39 +4582,487 @@
         <v>14</v>
       </c>
       <c r="J121" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>60</v>
-      </c>
-      <c r="B122" s="3">
+        <v>65</v>
+      </c>
+      <c r="B122" s="2">
+        <v>33.500691550925929</v>
+      </c>
+      <c r="C122" s="2">
+        <v>36557.500691550929</v>
+      </c>
+      <c r="D122">
+        <v>9</v>
+      </c>
+      <c r="E122">
+        <v>219</v>
+      </c>
+      <c r="F122" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" t="s">
+        <v>70</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+      <c r="I122" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>65</v>
+      </c>
+      <c r="B123" s="3">
+        <v>33.500696180555558</v>
+      </c>
+      <c r="C123" s="3">
+        <v>33.500696180555558</v>
+      </c>
+      <c r="D123">
+        <v>9</v>
+      </c>
+      <c r="E123">
+        <v>208</v>
+      </c>
+      <c r="F123" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s">
+        <v>78</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>65</v>
+      </c>
+      <c r="B124" s="3">
+        <v>33.500704166666665</v>
+      </c>
+      <c r="C124" s="3">
+        <v>33.500704166666665</v>
+      </c>
+      <c r="D124">
+        <v>9</v>
+      </c>
+      <c r="E124">
+        <v>188</v>
+      </c>
+      <c r="F124" t="s">
+        <v>29</v>
+      </c>
+      <c r="G124" t="s">
+        <v>74</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+      <c r="I124" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>65</v>
+      </c>
+      <c r="B125" s="3">
+        <v>33.500802662037039</v>
+      </c>
+      <c r="C125" s="3">
+        <v>33.500802662037039</v>
+      </c>
+      <c r="D125">
+        <v>8</v>
+      </c>
+      <c r="E125">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" t="s">
+        <v>88</v>
+      </c>
+      <c r="H125" t="s">
+        <v>13</v>
+      </c>
+      <c r="I125" t="s">
+        <v>14</v>
+      </c>
+      <c r="J125" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>65</v>
+      </c>
+      <c r="B126" s="3">
+        <v>33.500879166666664</v>
+      </c>
+      <c r="C126" s="3">
+        <v>33.500879166666664</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+      <c r="F126" t="s">
+        <v>29</v>
+      </c>
+      <c r="G126" t="s">
+        <v>82</v>
+      </c>
+      <c r="H126" t="s">
+        <v>13</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+      <c r="J126" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>65</v>
+      </c>
+      <c r="B127" s="3">
+        <v>33.500914120370368</v>
+      </c>
+      <c r="C127" s="3">
+        <v>33.500914120370368</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+      <c r="F127" t="s">
+        <v>29</v>
+      </c>
+      <c r="G127" t="s">
+        <v>100</v>
+      </c>
+      <c r="H127" t="s">
+        <v>13</v>
+      </c>
+      <c r="I127" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>65</v>
+      </c>
+      <c r="B128" s="3">
+        <v>33.500925578703701</v>
+      </c>
+      <c r="C128" s="3">
+        <v>33.500925578703701</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128">
+        <v>1</v>
+      </c>
+      <c r="F128" t="s">
+        <v>29</v>
+      </c>
+      <c r="G128" t="s">
+        <v>90</v>
+      </c>
+      <c r="H128" t="s">
+        <v>13</v>
+      </c>
+      <c r="I128" t="s">
+        <v>14</v>
+      </c>
+      <c r="J128" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>65</v>
+      </c>
+      <c r="B129" s="3">
+        <v>33.500951620370373</v>
+      </c>
+      <c r="C129" s="3">
+        <v>33.500951620370373</v>
+      </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129" t="s">
+        <v>29</v>
+      </c>
+      <c r="G129" t="s">
+        <v>84</v>
+      </c>
+      <c r="H129" t="s">
+        <v>13</v>
+      </c>
+      <c r="I129" t="s">
+        <v>14</v>
+      </c>
+      <c r="J129" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>65</v>
+      </c>
+      <c r="B130" s="3">
+        <v>33.500961921296295</v>
+      </c>
+      <c r="C130" s="3">
+        <v>33.500961921296295</v>
+      </c>
+      <c r="D130">
+        <v>7</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130" t="s">
+        <v>29</v>
+      </c>
+      <c r="G130" t="s">
+        <v>86</v>
+      </c>
+      <c r="H130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I130" t="s">
+        <v>14</v>
+      </c>
+      <c r="J130" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>66</v>
+      </c>
+      <c r="B131" s="3">
+        <v>33.501406712962961</v>
+      </c>
+      <c r="C131" s="3">
+        <v>33.501406712962961</v>
+      </c>
+      <c r="D131">
+        <v>9</v>
+      </c>
+      <c r="E131">
+        <v>354</v>
+      </c>
+      <c r="F131" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" t="s">
+        <v>70</v>
+      </c>
+      <c r="H131" t="s">
+        <v>13</v>
+      </c>
+      <c r="I131" t="s">
+        <v>14</v>
+      </c>
+      <c r="J131" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>66</v>
+      </c>
+      <c r="B132" s="3">
+        <v>33.501448958333334</v>
+      </c>
+      <c r="C132" s="3">
+        <v>33.501448958333334</v>
+      </c>
+      <c r="D132">
+        <v>9</v>
+      </c>
+      <c r="E132">
+        <v>299</v>
+      </c>
+      <c r="F132" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132" t="s">
+        <v>13</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+      <c r="J132" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>66</v>
+      </c>
+      <c r="B133" s="3">
+        <v>33.501479976851854</v>
+      </c>
+      <c r="C133" s="3">
+        <v>33.501479976851854</v>
+      </c>
+      <c r="D133">
+        <v>9</v>
+      </c>
+      <c r="E133">
+        <v>261</v>
+      </c>
+      <c r="F133" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H133" t="s">
+        <v>13</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+      <c r="J133" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>66</v>
+      </c>
+      <c r="B134" s="3">
+        <v>33.501579050925926</v>
+      </c>
+      <c r="C134" s="3">
+        <v>33.501579050925926</v>
+      </c>
+      <c r="D134">
+        <v>9</v>
+      </c>
+      <c r="E134">
+        <v>149</v>
+      </c>
+      <c r="F134" t="s">
+        <v>29</v>
+      </c>
+      <c r="G134" t="s">
+        <v>76</v>
+      </c>
+      <c r="H134" t="s">
+        <v>13</v>
+      </c>
+      <c r="I134" t="s">
+        <v>14</v>
+      </c>
+      <c r="J134" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>67</v>
+      </c>
+      <c r="B135" s="3">
+        <v>33.500720023148148</v>
+      </c>
+      <c r="C135" s="3">
+        <v>33.500720023148148</v>
+      </c>
+      <c r="D135">
+        <v>9</v>
+      </c>
+      <c r="E135">
+        <v>1</v>
+      </c>
+      <c r="F135" t="s">
+        <v>29</v>
+      </c>
+      <c r="G135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" t="s">
+        <v>14</v>
+      </c>
+      <c r="J135" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" s="3">
         <v>33.500866550925927</v>
       </c>
-      <c r="C122" s="3">
+      <c r="C136" s="3">
         <v>33.500866550925927</v>
       </c>
-      <c r="D122">
+      <c r="D136">
         <v>8</v>
       </c>
-      <c r="E122">
+      <c r="E136">
         <v>1</v>
       </c>
-      <c r="F122" t="s">
-        <v>27</v>
-      </c>
-      <c r="G122" t="s">
-        <v>90</v>
-      </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-      <c r="I122" t="s">
-        <v>14</v>
-      </c>
-      <c r="J122" t="s">
-        <v>91</v>
+      <c r="F136" t="s">
+        <v>29</v>
+      </c>
+      <c r="G136" t="s">
+        <v>97</v>
+      </c>
+      <c r="H136" t="s">
+        <v>13</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+      <c r="J136" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
